--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail0 Features.xlsx
@@ -6077,7 +6077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6088,29 +6088,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6131,115 +6129,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6256,72 +6244,66 @@
         <v>2.257985673929279e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.2117966739354482</v>
+        <v>1.170790311065006e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.369270017012437</v>
+        <v>2.911836964772437e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.170790311065006e-06</v>
+        <v>-0.08646120367027249</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.911836964772437e-06</v>
+        <v>0.1195977151239197</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.08646120367027249</v>
+        <v>0.02174244090338429</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1195977151239197</v>
+        <v>1.906569453136187</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02174244090338429</v>
+        <v>3.144844492789996</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.955503491294375</v>
+        <v>5.415319427677359</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.144844492789996</v>
+        <v>1.665227810765513e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.415319427677359</v>
+        <v>9746554559.406227</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.665227810765513e-17</v>
+        <v>1.226058655646943e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>9746554559.406227</v>
+        <v>1581.88858380724</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.226058655646943e-08</v>
+        <v>3.707604978844516e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1581.88858380724</v>
+        <v>13.38067221424276</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>3.707604978844516e-05</v>
+        <v>1.078269172680814</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>13.38067221424276</v>
+        <v>0.00663818452528425</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.078269172680814</v>
+        <v>7.341957172764537</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.00663818452528425</v>
+        <v>0.9588257905775949</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>7.341957172764537</v>
+        <v>0.7749249207109637</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9588257905775949</v>
+        <v>188</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.7749249207109637</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>188</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>13.43024283139578</v>
       </c>
     </row>
@@ -6336,72 +6318,66 @@
         <v>2.171806451626649e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.1045236149716283</v>
+        <v>1.038195601185697e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.1442165853367752</v>
+        <v>2.893492995389436e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.038195601185697e-06</v>
+        <v>-0.07970348026076957</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.893492995389436e-06</v>
+        <v>0.09724382226806921</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.07970348026076957</v>
+        <v>0.01578813052487736</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.09724382226806921</v>
+        <v>1.902046259845544</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01578813052487736</v>
+        <v>2.748100095772737</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.952858950511549</v>
+        <v>5.116116165235907</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.748100095772737</v>
+        <v>2.594320557936145e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.116116165235907</v>
+        <v>6208936529.266376</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.594320557936145e-17</v>
+        <v>1.924429393315956e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>6208936529.266376</v>
+        <v>1000.133737812854</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.924429393315956e-08</v>
+        <v>7.296726436344849e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1000.133737812854</v>
+        <v>13.43427314709171</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>7.296726436344849e-05</v>
+        <v>1.061145327054585</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>13.43427314709171</v>
+        <v>0.01316910961661873</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.061145327054585</v>
+        <v>6.289143888065055</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01316910961661873</v>
+        <v>0.9586339388664</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>6.289143888065055</v>
+        <v>0.7930969167499239</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9586339388664</v>
+        <v>138</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.7930969167499239</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>10.22057000304257</v>
       </c>
     </row>
@@ -6416,72 +6392,66 @@
         <v>2.132687877123419e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.3063196199965889</v>
+        <v>9.467714086114299e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.4057468950073932</v>
+        <v>2.877002052998707e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.467714086114299e-07</v>
+        <v>-0.07400922687821763</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.877002052998707e-06</v>
+        <v>0.08309407359358538</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.07400922687821763</v>
+        <v>0.01237190502228264</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.08309407359358538</v>
+        <v>1.897470856519881</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01237190502228264</v>
+        <v>2.45686799718051</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.951368416411351</v>
+        <v>5.186021366295682</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.45686799718051</v>
+        <v>4.231962741373502e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.186021366295682</v>
+        <v>3866260189.193269</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.231962741373502e-17</v>
+        <v>3.093648545089738e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>3866260189.193269</v>
+        <v>632.5924300273749</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.093648545089738e-08</v>
+        <v>0.0001150572770096821</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>632.5924300273749</v>
+        <v>13.54984553567274</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001150572770096821</v>
+        <v>1.068598750928479</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>13.54984553567274</v>
+        <v>0.02112432207707884</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.068598750928479</v>
+        <v>5.335691026683382</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02112432207707884</v>
+        <v>0.9586812297525682</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>5.335691026683382</v>
+        <v>0.8292748752212006</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9586812297525682</v>
+        <v>93</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.8292748752212006</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>7.505843600449959</v>
       </c>
     </row>
@@ -6496,72 +6466,66 @@
         <v>2.120399459412349e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.4318470661804344</v>
+        <v>8.868695268301593e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.5635605939860144</v>
+        <v>2.861757739167768e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.868695268301593e-07</v>
+        <v>-0.06972062875938993</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.861757739167768e-06</v>
+        <v>0.07634490435516747</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.06972062875938993</v>
+        <v>0.01068526444738719</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.07634490435516747</v>
+        <v>1.899500313087983</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01068526444738719</v>
+        <v>2.197749331818301</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.953362787857827</v>
+        <v>5.262522452997433</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.197749331818301</v>
+        <v>7.4359110129672e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.262522452997433</v>
+        <v>2242935224.943332</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>7.4359110129672e-17</v>
+        <v>5.33623064029682e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>2242935224.943332</v>
+        <v>374.0827196333149</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.33623064029682e-08</v>
+        <v>0.0001572387236661602</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>374.0827196333149</v>
+        <v>13.61446096662744</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001572387236661602</v>
+        <v>1.073525934912971</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>13.61446096662744</v>
+        <v>0.02914475522203003</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.073525934912971</v>
+        <v>4.471391729106706</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02914475522203003</v>
+        <v>0.9593401147213361</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.471391729106706</v>
+        <v>0.9156183680634258</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9593401147213361</v>
+        <v>57</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9156183680634258</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>5.277187685147533</v>
       </c>
     </row>
@@ -6576,72 +6540,66 @@
         <v>2.121825314931726e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.510078670128822</v>
+        <v>8.44242545552074e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.6881009222565799</v>
+        <v>2.847343973029531e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>8.44242545552074e-07</v>
+        <v>-0.06632086272103926</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.847343973029531e-06</v>
+        <v>0.07328226872614366</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.06632086272103926</v>
+        <v>0.00976640417892272</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.07328226872614366</v>
+        <v>1.903154940410848</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.00976640417892272</v>
+        <v>2.244564856184937</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.957813254082793</v>
+        <v>4.453800716039687</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.244564856184937</v>
+        <v>1.198359942596892e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.453800716039687</v>
+        <v>1450347544.503925</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.198359942596892e-16</v>
+        <v>8.30703161447324e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1450347544.503925</v>
+        <v>252.0759725950628</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>8.30703161447324e-08</v>
+        <v>0.0001959036764149985</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>252.0759725950628</v>
+        <v>13.86724177989681</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001959036764149985</v>
+        <v>1.042771935252675</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>13.86724177989681</v>
+        <v>0.0376723542746913</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.042771935252675</v>
+        <v>3.632038796431995</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0376723542746913</v>
+        <v>0.9601415375278014</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.632038796431995</v>
+        <v>0.9628406496634978</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9601415375278014</v>
+        <v>38</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9628406496634978</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>3.389563921471889</v>
       </c>
     </row>
@@ -6656,72 +6614,66 @@
         <v>2.130577924004145e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.5542974231183546</v>
+        <v>8.072490248532159e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.8016968480765811</v>
+        <v>2.833588922951827e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>8.072490248532159e-07</v>
+        <v>-0.06315343295041108</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.833588922951827e-06</v>
+        <v>0.07115505571598162</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.06315343295041108</v>
+        <v>0.009049646642421635</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.07115505571598162</v>
+        <v>1.866617245476091</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.009049646642421635</v>
+        <v>2.225555426665116</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.895089522501454</v>
+        <v>6.680503372883441</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.225555426665116</v>
+        <v>1.588354066921402e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>6.680503372883441</v>
+        <v>1101923194.251048</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.588354066921402e-16</v>
+        <v>1.086209493414896e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1101923194.251048</v>
+        <v>192.8634665284455</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.086209493414896e-07</v>
+        <v>0.0001979433724516837</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>192.8634665284455</v>
+        <v>13.53248905792479</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001979433724516837</v>
+        <v>1.023592751202541</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>13.53248905792479</v>
+        <v>0.03624902539596806</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.023592751202541</v>
+        <v>3.278499249768258</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.03624902539596806</v>
+        <v>0.9602970162467719</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.278499249768258</v>
+        <v>1.315885685855475</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9602970162467719</v>
+        <v>33</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.315885685855475</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>2.352892378975083</v>
       </c>
     </row>
@@ -6736,72 +6688,66 @@
         <v>2.144644801714369e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.5723020482003803</v>
+        <v>7.787296497727436e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.907204154093459</v>
+        <v>2.820387567045843e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.787296497727436e-07</v>
+        <v>-0.06052282662583363</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.820387567045843e-06</v>
+        <v>0.06934642434208931</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.06052282662583363</v>
+        <v>0.008470676704282139</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.06934642434208931</v>
+        <v>1.86736241506145</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.008470676704282139</v>
+        <v>2.05296334111896</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.888361927034699</v>
+        <v>5.037795926730894</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.05296334111896</v>
+        <v>3.817467764737595e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.037795926730894</v>
+        <v>461236901.3359196</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.817467764737595e-16</v>
+        <v>2.598334738567344e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>461236901.3359196</v>
+        <v>81.21261039573109</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.598334738567344e-07</v>
+        <v>0.0002389259256803119</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>81.21261039573109</v>
+        <v>9.268946449685307</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0002389259256803119</v>
+        <v>1.901340565737984</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.268946449685307</v>
+        <v>0.02052693104631701</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.901340565737984</v>
+        <v>3.045339554657435</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02052693104631701</v>
+        <v>0.9613162076773245</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.045339554657435</v>
+        <v>1.484839123229117</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9613162076773245</v>
+        <v>31</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.484839123229117</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.7286958760340454</v>
       </c>
     </row>
@@ -6816,72 +6762,66 @@
         <v>2.163513037682819e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.5724244755850575</v>
+        <v>7.60910390004557e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.002951516168001</v>
+        <v>2.807571246730695e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>7.60910390004557e-07</v>
+        <v>-0.05862166777839042</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.807571246730695e-06</v>
+        <v>0.06793974019288342</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05862166777839042</v>
+        <v>0.008051454462583747</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.06793974019288342</v>
+        <v>1.865090661812593</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.008051454462583747</v>
+        <v>2.050799195111467</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.881925986153172</v>
+        <v>4.366830098362451</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.050799195111467</v>
+        <v>5.080704427080096e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.366830098362451</v>
+        <v>338102448.9689232</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>5.080704427080096e-16</v>
+        <v>3.535661202645051e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>338102448.9689232</v>
+        <v>58.07919166340028</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.535661202645051e-07</v>
+        <v>0.0001761495476025172</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>58.07919166340028</v>
+        <v>8.964702468568436</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001761495476025172</v>
+        <v>1.658993965578496</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.964702468568436</v>
+        <v>0.01415641522781843</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.658993965578496</v>
+        <v>3.053367235661511</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01415641522781843</v>
+        <v>0.9581352002433121</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.053367235661511</v>
+        <v>1.496573331457838</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9581352002433121</v>
+        <v>15</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.496573331457838</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.3700630410508754</v>
       </c>
     </row>
@@ -6896,72 +6836,66 @@
         <v>2.186526645466315e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.5613488662584301</v>
+        <v>7.508628816552624e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.087978364905274</v>
+        <v>2.794979759303594e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7.508628816552624e-07</v>
+        <v>-0.05723855677826952</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.794979759303594e-06</v>
+        <v>0.06682710643896589</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.05723855677826952</v>
+        <v>0.007741399585997568</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.06682710643896589</v>
+        <v>1.8623032914184</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.007741399585997568</v>
+        <v>2.029727638292367</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.874941946889096</v>
+        <v>4.224690675774236</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.029727638292367</v>
+        <v>5.428335580474698e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.224690675774236</v>
+        <v>309610129.1833916</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>5.428335580474698e-16</v>
+        <v>3.851795229019001e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>309610129.1833916</v>
+        <v>52.03517376187133</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.851795229019001e-07</v>
+        <v>0.0001457692605543605</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>52.03517376187133</v>
+        <v>9.519094539588417</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001457692605543605</v>
+        <v>1.183227224370184</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.519094539588417</v>
+        <v>0.01320861345412581</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.183227224370184</v>
+        <v>2.92370622411555</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01320861345412581</v>
+        <v>0.956626354278561</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.92370622411555</v>
+        <v>1.493602810821728</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.956626354278561</v>
+        <v>9</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.493602810821728</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2919542487775859</v>
       </c>
     </row>
@@ -6976,72 +6910,66 @@
         <v>2.213372962279995e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.5424664370392079</v>
+        <v>7.426723158611955e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.161562350758834</v>
+        <v>2.782533125766038e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>7.426723158611955e-07</v>
+        <v>-0.05592817503546701</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.782533125766038e-06</v>
+        <v>0.06567536025032637</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05592817503546701</v>
+        <v>0.007440403326058356</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.06567536025032637</v>
+        <v>1.854940004960822</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.007440403326058356</v>
+        <v>2.023478047529272</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.86525312818258</v>
+        <v>4.191358826554929</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.023478047529272</v>
+        <v>5.515016736004313e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.191358826554929</v>
+        <v>294443934.1484693</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>5.515016736004313e-16</v>
+        <v>4.024646492779384e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>294443934.1484693</v>
+        <v>47.81366763831282</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.024646492779384e-07</v>
+        <v>0.0001476878344698392</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>47.81366763831282</v>
+        <v>9.938834812048617</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001476878344698392</v>
+        <v>1.158056544105324</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.938834812048617</v>
+        <v>0.01458866889071894</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.158056544105324</v>
+        <v>2.723485903545915</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01458866889071894</v>
+        <v>0.9576416320200846</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.723485903545915</v>
+        <v>1.510946595338247</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9576416320200846</v>
+        <v>9</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.510946595338247</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.262687674000453</v>
       </c>
     </row>
@@ -7056,72 +6984,66 @@
         <v>2.244268074171397e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.5168645503630134</v>
+        <v>7.338298979269234e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.223170387524232</v>
+        <v>2.770228322190721e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>7.338298979269234e-07</v>
+        <v>-0.05450176513662245</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.770228322190721e-06</v>
+        <v>0.06437153655993247</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05450176513662245</v>
+        <v>0.007113317856860939</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.06437153655993247</v>
+        <v>1.853043497972676</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.007113317856860939</v>
+        <v>2.01285311207886</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.862509612880733</v>
+        <v>4.190648544698876</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.01285311207886</v>
+        <v>5.516886398062706e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.190648544698876</v>
+        <v>288301559.3778155</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>5.516886398062706e-16</v>
+        <v>4.102814120796064e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>288301559.3778155</v>
+        <v>45.85514003417453</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.102814120796064e-07</v>
+        <v>0.0001466041107169253</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>45.85514003417453</v>
+        <v>9.472004614968649</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001466041107169253</v>
+        <v>1.185598319967421</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.472004614968649</v>
+        <v>0.01315315535993304</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.185598319967421</v>
+        <v>2.786070744803478</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01315315535993304</v>
+        <v>0.9581781571313032</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.786070744803478</v>
+        <v>1.524648894898114</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9581781571313032</v>
+        <v>44</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.524648894898114</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2475054856319111</v>
       </c>
     </row>
@@ -7136,72 +7058,66 @@
         <v>2.279110113236598e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.4856256573909816</v>
+        <v>7.252336274017278e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.273539548855753</v>
+        <v>2.758070669754362e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>7.252336274017278e-07</v>
+        <v>-0.05303974616303946</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.758070669754362e-06</v>
+        <v>0.06300412789560687</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05303974616303946</v>
+        <v>0.006781990821662328</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.06300412789560687</v>
+        <v>1.853277656945945</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.006781990821662328</v>
+        <v>1.973790028460207</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.862792608288805</v>
+        <v>4.19143102263247</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.973790028460207</v>
+        <v>5.514826748792477e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.19143102263247</v>
+        <v>291735370.8761346</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>5.514826748792477e-16</v>
+        <v>4.058752061358856e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>291735370.8761346</v>
+        <v>46.93642939823419</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.058752061358856e-07</v>
+        <v>0.0001502704865395119</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>46.93642939823419</v>
+        <v>8.211378666184865</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001502704865395119</v>
+        <v>1.388869525044096</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.211378666184865</v>
+        <v>0.01013224896538623</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.388869525044096</v>
+        <v>2.966925683715813</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01013224896538623</v>
+        <v>0.9574489938854942</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.966925683715813</v>
+        <v>1.496911601866112</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9574489938854942</v>
+        <v>78</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.496911601866112</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2367249654341601</v>
       </c>
     </row>
@@ -7216,72 +7132,66 @@
         <v>2.317488861478608e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.4502176852884676</v>
+        <v>7.178035650598338e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.314027930880763</v>
+        <v>2.746047286118353e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>7.178035650598338e-07</v>
+        <v>-0.05162667091594434</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.746047286118353e-06</v>
+        <v>0.06165201958662428</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05162667091594434</v>
+        <v>0.006465646450391575</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.06165201958662428</v>
+        <v>1.847648675789532</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.006465646450391575</v>
+        <v>1.985545913653741</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.859382549416356</v>
+        <v>4.196469488822157</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.985545913653741</v>
+        <v>5.501592010648528e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.196469488822157</v>
+        <v>293359848.2965127</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>5.501592010648528e-16</v>
+        <v>4.031130818817057e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>293359848.2965127</v>
+        <v>47.34670116963967</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.031130818817057e-07</v>
+        <v>0.0001654104929221784</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>47.34670116963967</v>
+        <v>8.342729079479899</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001654104929221784</v>
+        <v>1.595337215689587</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.342729079479899</v>
+        <v>0.01151275697206617</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.595337215689587</v>
+        <v>2.978639357573537</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01151275697206617</v>
+        <v>0.9595185184021796</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.978639357573537</v>
+        <v>1.51679299511738</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9595185184021796</v>
+        <v>120</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.51679299511738</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.238758964393099</v>
       </c>
     </row>
@@ -7296,72 +7206,66 @@
         <v>2.358901469990307e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.4120705137460952</v>
+        <v>7.289377094867151e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.346041077380656</v>
+        <v>2.734134404571497e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>7.289377094867151e-07</v>
+        <v>-0.05031505742891369</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.734134404571497e-06</v>
+        <v>0.06035440436615479</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05031505742891369</v>
+        <v>0.006173730405444685</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.06035440436615479</v>
+        <v>1.846952880566173</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.006173730405444685</v>
+        <v>1.95632433942298</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.864565214967735</v>
+        <v>4.204810210510047</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.95632433942298</v>
+        <v>5.479787584667089e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.204810210510047</v>
+        <v>308518055.6225423</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>5.479787584667089e-16</v>
+        <v>3.802661382056294e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>308518055.6225423</v>
+        <v>52.15847623236138</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.802661382056294e-07</v>
+        <v>0.0001524378483331997</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>52.15847623236138</v>
+        <v>9.573859594235939</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001524378483331997</v>
+        <v>1.20697234083119</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.573859594235939</v>
+        <v>0.01397226835192499</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.20697234083119</v>
+        <v>2.885297891570966</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01397226835192499</v>
+        <v>0.9612826006858861</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.885297891570966</v>
+        <v>1.518336543997147</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9612826006858861</v>
+        <v>163</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.518336543997147</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>163</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2537685784911456</v>
       </c>
     </row>
@@ -7376,72 +7280,66 @@
         <v>2.402861014818404e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.3724189310743081</v>
+        <v>7.456837999746894e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.370749174197198</v>
+        <v>2.722299981431927e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>7.456837999746894e-07</v>
+        <v>-0.04913618269953986</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.722299981431927e-06</v>
+        <v>0.05912667059562877</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04913618269953986</v>
+        <v>0.005909882094241614</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.05912667059562877</v>
+        <v>1.847529464580597</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.005909882094241614</v>
+        <v>1.946716635948148</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.864618840722609</v>
+        <v>4.228254842876886</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.946716635948148</v>
+        <v>5.41918791013624e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.228254842876886</v>
+        <v>318155217.6916978</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>5.41918791013624e-16</v>
+        <v>3.732488128139494e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>318155217.6916978</v>
+        <v>54.85450626277254</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.732488128139494e-07</v>
+        <v>0.0001513019609846118</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>54.85450626277254</v>
+        <v>10.22006647211501</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001513019609846118</v>
+        <v>1.139831810976342</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.22006647211501</v>
+        <v>0.0158034533148397</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.139831810976342</v>
+        <v>2.691062629758274</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0158034533148397</v>
+        <v>0.960946697240079</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.691062629758274</v>
+        <v>1.495225945187536</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.960946697240079</v>
+        <v>187</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.495225945187536</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>187</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2517369631839742</v>
       </c>
     </row>
@@ -7456,72 +7354,66 @@
         <v>2.4489907718673e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.3321601129580163</v>
+        <v>7.625487519305832e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.389133309421185</v>
+        <v>2.710516038514525e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>7.625487519305832e-07</v>
+        <v>-0.0480397382592677</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.710516038514525e-06</v>
+        <v>0.05793657770184943</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.0480397382592677</v>
+        <v>0.005664062255549845</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.05793657770184943</v>
+        <v>1.848470756257663</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.005664062255549845</v>
+        <v>1.924421702555298</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.863729520551399</v>
+        <v>4.276914631722844</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.924421702555298</v>
+        <v>5.296577812342801e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.276914631722844</v>
+        <v>326239412.9262087</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>5.296577812342801e-16</v>
+        <v>3.639766456381351e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>326239412.9262087</v>
+        <v>56.37261882905</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.639766456381351e-07</v>
+        <v>0.0001467614792507688</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>56.37261882905</v>
+        <v>9.358234778130196</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001467614792507688</v>
+        <v>1.183704778184106</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.358234778130196</v>
+        <v>0.01285286522363497</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.183704778184106</v>
+        <v>2.822274148378555</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01285286522363497</v>
+        <v>0.9620519473980786</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.822274148378555</v>
+        <v>1.483733120635859</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9620519473980786</v>
+        <v>230</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.483733120635859</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>230</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2429767650716037</v>
       </c>
     </row>
@@ -7536,72 +7428,66 @@
         <v>2.497036767121764e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.2918540545722982</v>
+        <v>7.793904402412648e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.402144913224627</v>
+        <v>2.698767636202873e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>7.793904402412648e-07</v>
+        <v>-0.04699862952545738</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.698767636202873e-06</v>
+        <v>0.05677251566253099</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.04699862952545738</v>
+        <v>0.005431642450812652</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.05677251566253099</v>
+        <v>1.850817188978498</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.005431642450812652</v>
+        <v>1.894907572139697</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.86653426661031</v>
+        <v>4.373259338460079</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.894907572139697</v>
+        <v>5.065776861516146e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.373259338460079</v>
+        <v>342101605.7439821</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>5.065776861516146e-16</v>
+        <v>3.466712184253993e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>342101605.7439821</v>
+        <v>59.28656401544463</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>3.466712184253993e-07</v>
+        <v>0.0001467882306873962</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>59.28656401544463</v>
+        <v>8.381730070274006</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001467882306873962</v>
+        <v>1.304536869434967</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.381730070274006</v>
+        <v>0.01031237213471936</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.304536869434967</v>
+        <v>2.950993595622186</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01031237213471936</v>
+        <v>0.9609290900210776</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.950993595622186</v>
+        <v>1.498858531460227</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9609290900210776</v>
+        <v>268</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.498858531460227</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>268</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2546500466858972</v>
       </c>
     </row>
@@ -7616,72 +7502,66 @@
         <v>2.546704911828563e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.2518648579921371</v>
+        <v>7.9605385673459e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.410704280252753</v>
+        <v>2.687040920095398e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>7.9605385673459e-07</v>
+        <v>-0.04602808609502838</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.687040920095398e-06</v>
+        <v>0.05564464364615537</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.04602808609502838</v>
+        <v>0.005214628208108836</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.05564464364615537</v>
+        <v>1.857315668230361</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.005214628208108836</v>
+        <v>1.857897299977916</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.869731370976421</v>
+        <v>4.563306165473973</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.857897299977916</v>
+        <v>4.652617015915829e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.563306165473973</v>
+        <v>365449553.9877661</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>4.652617015915829e-16</v>
+        <v>3.246610686652212e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>365449553.9877661</v>
+        <v>62.1372712082775</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.246610686652212e-07</v>
+        <v>0.0001593534754829442</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>62.1372712082775</v>
+        <v>8.129564034607023</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001593534754829442</v>
+        <v>1.514125821784053</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.129564034607023</v>
+        <v>0.01053164113945114</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.514125821784053</v>
+        <v>3.005898565663937</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01053164113945114</v>
+        <v>0.9609213077715624</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.005898565663937</v>
+        <v>1.486838244038403</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9609213077715624</v>
+        <v>272</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.486838244038403</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>272</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.3141914625357488</v>
       </c>
     </row>
@@ -7696,72 +7576,66 @@
         <v>2.597640801317449e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.2124032181872932</v>
+        <v>8.124646922570835e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.41559627481035</v>
+        <v>2.675318670380541e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>8.124646922570835e-07</v>
+        <v>-0.0451460985804569</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.675318670380541e-06</v>
+        <v>0.05455964241150866</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.0451460985804569</v>
+        <v>0.005014710509363537</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.05455964241150866</v>
+        <v>1.859864942474393</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.005014710509363537</v>
+        <v>1.796071963787241</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.870993913374191</v>
+        <v>5.003794316119945</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.796071963787241</v>
+        <v>3.869524684206655e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>5.003794316119945</v>
+        <v>430491670.5718597</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>3.869524684206655e-16</v>
+        <v>2.757465290429103e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>430491670.5718597</v>
+        <v>71.71122265448246</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>2.757465290429103e-07</v>
+        <v>0.0001746115165381078</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>71.71122265448246</v>
+        <v>9.959794323643791</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001746115165381078</v>
+        <v>1.252400669682654</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.959794323643791</v>
+        <v>0.01732102643026067</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.252400669682654</v>
+        <v>2.916963250807634</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01732102643026067</v>
+        <v>0.9600291459398245</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.916963250807634</v>
+        <v>1.490166389340922</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9600291459398245</v>
+        <v>274</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.490166389340922</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>274</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.5232020196526028</v>
       </c>
     </row>
@@ -7776,72 +7650,66 @@
         <v>2.649455147989428e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.1735599626877611</v>
+        <v>8.2866432421063e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.417372039683933</v>
+        <v>2.663578083109684e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>8.2866432421063e-07</v>
+        <v>-0.04438781711312973</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.663578083109684e-06</v>
+        <v>0.05352225520840097</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.04438781711312973</v>
+        <v>0.0048347652828082</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.05352225520840097</v>
+        <v>1.852950056179934</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.0048347652828082</v>
+        <v>1.81749723228723</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.867973040351368</v>
+        <v>5.375053624138873</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.81749723228723</v>
+        <v>2.618239192478742e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>5.375053624138873</v>
+        <v>613736068.993873</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.618239192478742e-16</v>
+        <v>1.917795253424099e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>613736068.993873</v>
+        <v>98.62172946218038</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.917795253424099e-07</v>
+        <v>0.0002045027665733117</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>98.62172946218038</v>
+        <v>12.96445283098195</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0002045027665733117</v>
+        <v>1.004819818427893</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>12.96445283098195</v>
+        <v>0.03437221910622704</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.004819818427893</v>
+        <v>2.597026000116952</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.03437221910622704</v>
+        <v>0.9591156610679963</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.597026000116952</v>
+        <v>1.517752495552628</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9591156610679963</v>
+        <v>304</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.517752495552628</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>304</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.858722309956987</v>
       </c>
     </row>
@@ -7856,72 +7724,66 @@
         <v>2.701731736830673e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.1353454514509252</v>
+        <v>8.447020303074709e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.416270420977379</v>
+        <v>2.651786452756966e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>8.447020303074709e-07</v>
+        <v>-0.04378863488283446</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.651786452756966e-06</v>
+        <v>0.05252438829432362</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.04378863488283446</v>
+        <v>0.004676183923904836</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.05252438829432362</v>
+        <v>1.88363593521603</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.004676183923904836</v>
+        <v>2.090588101224966</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.925090750842829</v>
+        <v>4.081276974612286</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.090588101224966</v>
+        <v>2.371994045024109e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.081276974612286</v>
+        <v>666072504.3228613</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.371994045024109e-16</v>
+        <v>1.773665928546178e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>666072504.3228613</v>
+        <v>105.2341280226986</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.773665928546178e-07</v>
+        <v>0.0002326702476057627</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>105.2341280226986</v>
+        <v>11.17547861807706</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0002326702476057627</v>
+        <v>1.360218119287325</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>11.17547861807706</v>
+        <v>0.02905849489337965</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.360218119287325</v>
+        <v>2.897684480741911</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.02905849489337965</v>
+        <v>0.9585385000475733</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.897684480741911</v>
+        <v>1.20643586954744</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9585385000475733</v>
+        <v>307</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.20643586954744</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>307</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>1.054905941047003</v>
       </c>
     </row>
@@ -7936,72 +7798,66 @@
         <v>2.753969677548239e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.09765377735590514</v>
+        <v>8.605062656054043e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.41228986145601</v>
+        <v>2.63990085734162e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>8.605062656054043e-07</v>
+        <v>-0.04339315039885829</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.63990085734162e-06</v>
+        <v>0.05153542937479053</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.04339315039885829</v>
+        <v>0.004538862141375751</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.05153542937479053</v>
+        <v>1.881301715497107</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.004538862141375751</v>
+        <v>2.017943108603623</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.929704114776867</v>
+        <v>5.301343987679852</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.017943108603623</v>
+        <v>1.145882344660351e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5.301343987679852</v>
+        <v>1374976735.764923</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.145882344660351e-16</v>
+        <v>8.58436237283916e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>1374976735.764923</v>
+        <v>216.6360498784006</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>8.58436237283916e-08</v>
+        <v>0.0002100270452968569</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>216.6360498784006</v>
+        <v>10.06519689461522</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0002100270452968569</v>
+        <v>1.699494628963391</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.06519689461522</v>
+        <v>0.02127745950078086</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.699494628963391</v>
+        <v>3.802049115817079</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.02127745950078086</v>
+        <v>0.9577510368137027</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.802049115817079</v>
+        <v>1.161518939968445</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9577510368137027</v>
+        <v>315</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.161518939968445</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>315</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>2.632196284174937</v>
       </c>
     </row>
@@ -8016,72 +7872,66 @@
         <v>2.805529056654638e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.06027923955905301</v>
+        <v>8.760619425892958e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.405133652698425</v>
+        <v>2.627863239143899e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>8.760619425892958e-07</v>
+        <v>-0.0432611399120184</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.627863239143899e-06</v>
+        <v>0.05048604270520624</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.0432611399120184</v>
+        <v>0.004420412124722467</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.05048604270520624</v>
+        <v>1.879297841694326</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.004420412124722467</v>
+        <v>2.288296995360534</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.933638792100134</v>
+        <v>6.24707651858211</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.288296995360534</v>
+        <v>3.303404941452477e-17</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>6.24707651858211</v>
+        <v>5007292099.690745</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.303404941452477e-17</v>
+        <v>2.359781810505712e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>5007292099.690745</v>
+        <v>828.2618677545754</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.359781810505712e-08</v>
+        <v>6.121006128634902e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>828.2618677545754</v>
+        <v>8.41062351552122</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>6.121006128634902e-05</v>
+        <v>2.242672303743956</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.41062351552122</v>
+        <v>0.004329913301883104</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>2.242672303743956</v>
+        <v>6.853524643322335</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.004329913301883104</v>
+        <v>0.9570775962492192</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>6.853524643322335</v>
+        <v>1.007135128494289</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9570775962492192</v>
+        <v>325</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.007135128494289</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>325</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>10.14618011223915</v>
       </c>
     </row>
@@ -8096,72 +7946,66 @@
         <v>2.85554763642897e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.02293910438085083</v>
+        <v>8.912443341211352e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.394176935213243</v>
+        <v>2.615596271765226e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>8.912443341211352e-07</v>
+        <v>-0.0434668659800698</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.615596271765226e-06</v>
+        <v>0.0492293310789715</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.0434668659800698</v>
+        <v>0.004312945860019823</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.0492293310789715</v>
+        <v>1.881739099615896</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.004312945860019823</v>
+        <v>2.551429048776276</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.937409904741953</v>
+        <v>7.909396071093948</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.551429048776276</v>
+        <v>1.155381122359477e-17</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>7.909396071093948</v>
+        <v>14655844098.57761</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.155381122359477e-17</v>
+        <v>8.074036760909052e-09</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>14655844098.57761</v>
+        <v>2481.68662716284</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>8.074036760909052e-09</v>
+        <v>8.483261123263701e-06</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>2481.68662716284</v>
+        <v>9.348281648190179</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>8.483261123263701e-06</v>
+        <v>1.521259663834902</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.348281648190179</v>
+        <v>0.0007413553264504741</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.521259663834902</v>
+        <v>8.501701453152826</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.0007413553264504741</v>
+        <v>0.9585713505248326</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>8.501701453152826</v>
+        <v>0.904589357822921</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9585713505248326</v>
+        <v>327</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0.904589357822921</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>327</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>16.95842651822031</v>
       </c>
     </row>
@@ -8176,72 +8020,66 @@
         <v>2.902827445662053e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.01465672231991929</v>
+        <v>9.059492100178136e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.378460902033819</v>
+        <v>2.603000711128218e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>9.059492100178136e-07</v>
+        <v>-0.04408299630696108</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.603000711128218e-06</v>
+        <v>0.04752036533676576</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.04408299630696108</v>
+        <v>0.004201467261224544</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.04752036533676576</v>
+        <v>1.889076183277104</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.004201467261224544</v>
+        <v>3.309489059574536</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.945987069800858</v>
+        <v>8.803815832584519</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>3.309489059574536</v>
+        <v>6.221148204355275e-18</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>8.803815832584519</v>
+        <v>27691098443.48237</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>6.221148204355275e-18</v>
+        <v>4.305426223054158e-09</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>27691098443.48237</v>
+        <v>4770.357362879339</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>4.305426223054158e-09</v>
+        <v>1.82046616793586e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>4770.357362879339</v>
+        <v>9.733158692294682</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>1.82046616793586e-05</v>
+        <v>1.218645345191379</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.733158692294682</v>
+        <v>0.001724607303250001</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.218645345191379</v>
+        <v>7.986204992176376</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.001724607303250001</v>
+        <v>0.9584662483595695</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>7.986204992176376</v>
+        <v>0.7435369715876367</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9584662483595695</v>
+        <v>325</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.7435369715876367</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>325</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>14.59425104931906</v>
       </c>
     </row>
@@ -8256,72 +8094,66 @@
         <v>2.9457487102663e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.05259409161991722</v>
+        <v>9.202189088033685e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.356741381444985</v>
+        <v>2.589953915322369e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>9.202189088033685e-07</v>
+        <v>-0.04521905056684407</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.589953915322369e-06</v>
+        <v>0.04489984699054954</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.04521905056684407</v>
+        <v>0.004060491311833782</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.04489984699054954</v>
+        <v>1.891205145942785</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.004060491311833782</v>
+        <v>3.525404045576272</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.943325756866485</v>
+        <v>8.542822746915725</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>3.525404045576272</v>
+        <v>6.607081358373399e-18</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>8.542822746915725</v>
+        <v>26295626182.68426</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>6.607081358373399e-18</v>
+        <v>4.53081374695143e-09</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>26295626182.68426</v>
+        <v>4568.532187592195</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>4.53081374695143e-09</v>
+        <v>2.657635704766128e-05</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>4568.532187592195</v>
+        <v>11.38692206817806</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>2.657635704766128e-05</v>
+        <v>1.119748062768169</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>11.38692206817806</v>
+        <v>0.00344594345301913</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.119748062768169</v>
+        <v>7.609982985097517</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.00344594345301913</v>
+        <v>0.9581496945343219</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>7.609982985097517</v>
+        <v>0.7043118564862089</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9581496945343219</v>
+        <v>290</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.7043118564862089</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>290</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>13.6941693701224</v>
       </c>
     </row>
@@ -8336,72 +8168,66 @@
         <v>2.98189478723145e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.09037414505343667</v>
+        <v>9.341492016167371e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.327717403381264</v>
+        <v>2.576289792491826e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>9.341492016167371e-07</v>
+        <v>-0.04708801822355889</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.576289792491826e-06</v>
+        <v>0.0402200358625692</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.04708801822355889</v>
+        <v>0.003834088436567172</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.0402200358625692</v>
+        <v>1.898874895626332</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.003834088436567172</v>
+        <v>3.469548750111246</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.946540275074336</v>
+        <v>8.639554628070174</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>3.469548750111246</v>
+        <v>6.459958609282603e-18</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>8.639554628070174</v>
+        <v>26494756750.73421</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>6.459958609282603e-18</v>
+        <v>4.499500735674707e-09</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>26494756750.73421</v>
+        <v>4534.710938782247</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>4.499500735674707e-09</v>
+        <v>2.515230116785024e-05</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>4534.710938782247</v>
+        <v>11.7142731845153</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>2.515230116785024e-05</v>
+        <v>1.080127538058106</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>11.7142731845153</v>
+        <v>0.00345150431138124</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.080127538058106</v>
+        <v>7.629789787392683</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.00345150431138124</v>
+        <v>0.9586106930724911</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>7.629789787392683</v>
+        <v>0.7085108203268974</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9586106930724911</v>
+        <v>260</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.7085108203268974</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>260</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>13.88139233261781</v>
       </c>
     </row>
@@ -8416,72 +8242,66 @@
         <v>3.007606246277298e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.1260458074431456</v>
+        <v>9.478599605675933e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.291425812008291</v>
+        <v>2.561791698955413e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>9.478599605675933e-07</v>
+        <v>-0.0497548871856552</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.561791698955413e-06</v>
+        <v>0.03174457437387145</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.0497548871856552</v>
+        <v>0.003482165397599127</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.03174457437387145</v>
+        <v>1.896335681150089</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.003482165397599127</v>
+        <v>3.450955699764511</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.946440476644637</v>
+        <v>8.712833850128858</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>3.450955699764511</v>
+        <v>6.351752699015914e-18</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>8.712833850128858</v>
+        <v>26733986425.89862</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>6.351752699015914e-18</v>
+        <v>4.457289582128119e-09</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>26733986425.89862</v>
+        <v>4539.635956453671</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>4.457289582128119e-09</v>
+        <v>1.758491337933143e-05</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>4539.635956453671</v>
+        <v>10.20172780651578</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>1.758491337933143e-05</v>
+        <v>1.155552549591839</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>10.20172780651578</v>
+        <v>0.001830154260371645</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.155552549591839</v>
+        <v>7.98843114837922</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.001830154260371645</v>
+        <v>0.9565658237666552</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>7.98843114837922</v>
+        <v>0.6870344131097298</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9565658237666552</v>
+        <v>224</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>0.6870344131097298</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>224</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>14.59198111196429</v>
       </c>
     </row>
@@ -8496,72 +8316,66 @@
         <v>3.020317326271941e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.1564811018287018</v>
+        <v>9.61206578241394e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.252122335231656</v>
+        <v>2.546398855182376e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>9.61206578241394e-07</v>
+        <v>-0.05218504320586232</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.546398855182376e-06</v>
+        <v>0.02324835252421223</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.05218504320586232</v>
+        <v>0.003263580828503301</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.02324835252421223</v>
+        <v>1.900250869874424</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.003263580828503301</v>
+        <v>2.687219926416093</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.945255974056818</v>
+        <v>9.057614378824546</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.687219926416093</v>
+        <v>5.877393813096233e-18</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>9.057614378824546</v>
+        <v>27786304558.3114</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>5.877393813096233e-18</v>
+        <v>4.295054267473435e-09</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>27786304558.3114</v>
+        <v>4537.810698071186</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>4.295054267473435e-09</v>
+        <v>8.463662120617272e-06</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>4537.810698071186</v>
+        <v>8.18976521604087</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>8.463662120617272e-06</v>
+        <v>1.342134564933848</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>8.18976521604087</v>
+        <v>0.0005676768980114617</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.342134564933848</v>
+        <v>8.477297358294264</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.0005676768980114617</v>
+        <v>0.9545159377869361</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>8.477297358294264</v>
+        <v>0.7279512149779827</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9545159377869361</v>
+        <v>181</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.7279512149779827</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>181</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>16.16198740993019</v>
       </c>
     </row>
@@ -8576,72 +8390,66 @@
         <v>3.022223603066138e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.1811082818990864</v>
+        <v>9.739695233617813e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.214399901921491</v>
+        <v>2.530383527911938e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>9.739695233617813e-07</v>
+        <v>-0.05363694137777663</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.530383527911938e-06</v>
+        <v>0.01924432778629745</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.05363694137777663</v>
+        <v>0.003247509710326591</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.01924432778629745</v>
+        <v>1.904316682591122</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.003247509710326591</v>
+        <v>3.208728580713912</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.946056435775457</v>
+        <v>9.163519753914505</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>3.208728580713912</v>
+        <v>5.707961759100837e-18</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>9.163519753914505</v>
+        <v>27526339311.85601</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>5.707961759100837e-18</v>
+        <v>4.332108670187284e-09</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>27526339311.85601</v>
+        <v>4324.918948437776</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>4.332108670187284e-09</v>
+        <v>6.059041859562393e-06</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>4324.918948437776</v>
+        <v>9.30306234652109</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>6.059041859562393e-06</v>
+        <v>1.595469325547085</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>9.30306234652109</v>
+        <v>0.000524391708130173</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.595469325547085</v>
+        <v>8.642199844692989</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.000524391708130173</v>
+        <v>0.955391951538194</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>8.642199844692989</v>
+        <v>0.7343642983816721</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.955391951538194</v>
+        <v>157</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.7343642983816721</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>157</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>17.18705933359166</v>
       </c>
     </row>
@@ -8656,72 +8464,66 @@
         <v>3.017034941505996e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.2018655704281748</v>
+        <v>9.849862164866648e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.178640250440545</v>
+        <v>2.514055939990025e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>9.849862164866648e-07</v>
+        <v>-0.05440857438199551</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.514055939990025e-06</v>
+        <v>0.01797173223109391</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.05440857438199551</v>
+        <v>0.003283560496682765</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.01797173223109391</v>
+        <v>1.901706009158172</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.003283560496682765</v>
+        <v>3.295262092504097</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.943702316514971</v>
+        <v>8.345573127806993</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>3.295262092504097</v>
+        <v>7.517277544235641e-18</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>8.345573127806993</v>
+        <v>20691894108.39532</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>7.517277544235641e-18</v>
+        <v>5.760589306561265e-09</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>20691894108.39532</v>
+        <v>3218.556071446705</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>5.760589306561265e-09</v>
+        <v>1.637918742911217e-05</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>3218.556071446705</v>
+        <v>8.138462887460831</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>1.637918742911217e-05</v>
+        <v>1.396461677339438</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.138462887460831</v>
+        <v>0.001084868570144067</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.396461677339438</v>
+        <v>8.010563862068775</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.001084868570144067</v>
+        <v>0.9553179995182964</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>8.010563862068775</v>
+        <v>0.7683692031010078</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9553179995182964</v>
+        <v>114</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>0.7683692031010078</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>14.22961390821286</v>
       </c>
     </row>
@@ -8736,72 +8538,66 @@
         <v>3.006657889056232e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.2202255373566319</v>
+        <v>9.912516109577611e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.144251816791835</v>
+        <v>2.497583122384909e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>9.912516109577611e-07</v>
+        <v>-0.05494372083860225</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.497583122384909e-06</v>
+        <v>0.01746022230758739</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.05494372083860225</v>
+        <v>0.003323972506753687</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.01746022230758739</v>
+        <v>1.901857547961193</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.003323972506753687</v>
+        <v>3.024718549689885</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.944367871715242</v>
+        <v>7.760246033842044</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>3.024718549689885</v>
+        <v>1.220352169601113e-17</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>7.760246033842044</v>
+        <v>12824211017.93541</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1.220352169601113e-17</v>
+        <v>9.285807667918304e-09</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>12824211017.93541</v>
+        <v>2006.995915930165</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>9.285807667918304e-09</v>
+        <v>5.774429342545656e-05</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>2006.995915930165</v>
+        <v>9.842095380228296</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>5.774429342545656e-05</v>
+        <v>1.319794648646986</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>9.842095380228296</v>
+        <v>0.005593507317243613</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.319794648646986</v>
+        <v>6.575035066129682</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.005593507317243613</v>
+        <v>0.9564198445753566</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>6.575035066129682</v>
+        <v>0.7823725086193289</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9564198445753566</v>
+        <v>76</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>0.7823725086193289</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>9.736314350701686</v>
       </c>
     </row>
@@ -8816,72 +8612,66 @@
         <v>2.991163161739551e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.2363869501848466</v>
+        <v>9.963112324842549e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.112007523377479</v>
+        <v>2.481020476408312e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>9.963112324842549e-07</v>
+        <v>-0.05550954205566761</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.481020476408312e-06</v>
+        <v>0.01702478457340725</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.05550954205566761</v>
+        <v>0.003371490385092775</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.01702478457340725</v>
+        <v>1.887744199155005</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.003371490385092775</v>
+        <v>3.021294773978349</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.936095590802456</v>
+        <v>6.638972071268098</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>3.021294773978349</v>
+        <v>1.806227533779572e-17</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>6.638972071268098</v>
+        <v>8892069062.509085</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1.806227533779572e-17</v>
+        <v>1.334966196697689e-08</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>8892069062.509085</v>
+        <v>1428.164101795424</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>1.334966196697689e-08</v>
+        <v>0.0001000403736287847</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>1428.164101795424</v>
+        <v>11.24739018685437</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001000403736287847</v>
+        <v>1.187746278802397</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>11.24739018685437</v>
+        <v>0.01265548601843124</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.187746278802397</v>
+        <v>5.466525426676283</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01265548601843124</v>
+        <v>0.9567759428052949</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>5.466525426676283</v>
+        <v>0.7714666479149059</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9567759428052949</v>
+        <v>72</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>0.7714666479149059</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>7.052555877992053</v>
       </c>
     </row>
@@ -8896,72 +8686,66 @@
         <v>2.969577358024113e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.2494960554890568</v>
+        <v>1.001889597101955e-06</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.084452141128817</v>
+        <v>2.464368344738458e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.001889597101955e-06</v>
+        <v>-0.05622554049902595</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.464368344738458e-06</v>
+        <v>0.01643051303329773</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.05622554049902595</v>
+        <v>0.003431642367349402</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.01643051303329773</v>
+        <v>1.880804268092043</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.003431642367349402</v>
+        <v>2.939299748241213</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.932515415430233</v>
+        <v>6.351898051963051</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>2.939299748241213</v>
+        <v>2.386238892206524e-17</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>6.351898051963051</v>
+        <v>6760542336.125459</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>2.386238892206524e-17</v>
+        <v>1.74690733231136e-08</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>6760542336.125459</v>
+        <v>1090.628879232242</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>1.74690733231136e-08</v>
+        <v>0.0001205894587771972</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>1090.628879232242</v>
+        <v>12.67220734590049</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001205894587771972</v>
+        <v>1.049515490560657</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>12.67220734590049</v>
+        <v>0.01936483882494297</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.049515490560657</v>
+        <v>4.914949301712823</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01936483882494297</v>
+        <v>0.956498372775676</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>4.914949301712823</v>
+        <v>0.7706676257347443</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.956498372775676</v>
+        <v>70</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>0.7706676257347443</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>6.041154924269822</v>
       </c>
     </row>
@@ -8976,72 +8760,66 @@
         <v>2.941129915695796e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.2586389152408741</v>
+        <v>1.003547157874516e-06</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.06482039392019</v>
+        <v>2.447646225637693e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.003547157874516e-06</v>
+        <v>-0.05686397629489517</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.447646225637693e-06</v>
+        <v>0.01635687399691159</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.05686397629489517</v>
+        <v>0.003501417457448206</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.01635687399691159</v>
+        <v>1.884041005390028</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.003501417457448206</v>
+        <v>2.451101174071104</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.932853300587039</v>
+        <v>6.33063963992724</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>2.451101174071104</v>
+        <v>3.533028746783242e-17</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>6.33063963992724</v>
+        <v>4602796835.928933</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>3.533028746783242e-17</v>
+        <v>2.591604870601579e-08</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>4602796835.928933</v>
+        <v>748.4982389429313</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>2.591604870601579e-08</v>
+        <v>0.0001283852584016245</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>748.4982389429313</v>
+        <v>13.37065744419016</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001283852584016245</v>
+        <v>0.990556182459347</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>13.37065744419016</v>
+        <v>0.02295200787330913</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>0.990556182459347</v>
+        <v>4.687884544872029</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.02295200787330913</v>
+        <v>0.9573728555879245</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>4.687884544872029</v>
+        <v>0.8433056842032375</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9573728555879245</v>
+        <v>40</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>0.8433056842032375</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>5.612228906092586</v>
       </c>
     </row>
@@ -9056,72 +8834,66 @@
         <v>2.906509898480295e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.2645989114062245</v>
+        <v>9.964956157362016e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.053942004653513</v>
+        <v>2.430965959770215e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>9.964956157362016e-07</v>
+        <v>-0.05713775920451805</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.430965959770215e-06</v>
+        <v>0.01730884460338563</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.05713775920451805</v>
+        <v>0.003564591073566205</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.01730884460338563</v>
+        <v>1.890087615717568</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.003564591073566205</v>
+        <v>2.313019460353953</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.936026530884019</v>
+        <v>5.719021735373902</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>2.313019460353953</v>
+        <v>6.613685209000844e-17</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>5.719021735373902</v>
+        <v>2475974196.514701</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>6.613685209000844e-17</v>
+        <v>4.824251613380355e-08</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>2475974196.514701</v>
+        <v>405.4485472910798</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>4.824251613380355e-08</v>
+        <v>0.0001328732959316285</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>405.4485472910798</v>
+        <v>13.55168760914741</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001328732959316285</v>
+        <v>1.015802008627805</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>13.55168760914741</v>
+        <v>0.02440194654965303</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.015802008627805</v>
+        <v>4.668970848494557</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.02440194654965303</v>
+        <v>0.9583873139080685</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>4.668970848494557</v>
+        <v>0.9403348799141886</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9583873139080685</v>
+        <v>34</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>0.9403348799141886</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>5.225388260158836</v>
       </c>
     </row>
@@ -9498,7 +9270,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.326039172956674</v>
+        <v>1.345075684706298</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.975959253299349</v>
@@ -9587,7 +9359,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.33961405908906</v>
+        <v>1.358978726314201</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.009364836405243</v>
@@ -9676,7 +9448,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.388196452247191</v>
+        <v>1.412210229127014</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.909296589926539</v>
@@ -9765,7 +9537,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.450248474717301</v>
+        <v>1.474131235541624</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.876109622451207</v>
@@ -9854,7 +9626,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.465538209247675</v>
+        <v>1.486721133057071</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.870667381421334</v>
@@ -9943,7 +9715,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.452845680203487</v>
+        <v>1.476468959225748</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.796177051324133</v>
@@ -10032,7 +9804,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.561113271079826</v>
+        <v>1.577451140721131</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.761857901567675</v>
@@ -10121,7 +9893,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.659853841553317</v>
+        <v>1.663619700446176</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.306649963046611</v>
@@ -10210,7 +9982,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.686486265742458</v>
+        <v>1.69031166087172</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.415935774587766</v>
@@ -10299,7 +10071,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.670970121150491</v>
+        <v>1.665616589305406</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.358766737787143</v>
@@ -10388,7 +10160,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.654152432805254</v>
+        <v>1.65745423085583</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.374759211573703</v>
@@ -10477,7 +10249,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.652375080924662</v>
+        <v>1.656181928292377</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.362080395751056</v>
@@ -10566,7 +10338,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.677842964415792</v>
+        <v>1.673189275041609</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.184474860226532</v>
@@ -10655,7 +10427,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.71276688072941</v>
+        <v>1.704834392507555</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.354623580276331</v>
@@ -10744,7 +10516,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.71383013213942</v>
+        <v>1.705649698771535</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.3541831052268</v>
@@ -10833,7 +10605,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.715768301706115</v>
+        <v>1.707654984347993</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.325911158837287</v>
@@ -10922,7 +10694,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.712830440968863</v>
+        <v>1.693277501181931</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.362477200976669</v>
@@ -11011,7 +10783,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.66061827235713</v>
+        <v>1.664127371374846</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.342606666113915</v>
@@ -11100,7 +10872,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.664857708165585</v>
+        <v>1.66906780605272</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.415480212805976</v>
@@ -11189,7 +10961,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.666373177901407</v>
+        <v>1.670465544795723</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.307637736460445</v>
@@ -11278,7 +11050,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.70986266439007</v>
+        <v>1.700005126075663</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.28092953603159</v>
@@ -11367,7 +11139,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.711982165084192</v>
+        <v>1.70106935816297</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.335588575588231</v>
@@ -11456,7 +11228,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.705268531394928</v>
+        <v>1.691692716581531</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.340121235891403</v>
@@ -11545,7 +11317,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.696065468517039</v>
+        <v>1.680287861341242</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.339503235947426</v>
@@ -11634,7 +11406,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.748444252653361</v>
+        <v>1.712898208124308</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.160191737350078</v>
@@ -11723,7 +11495,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.746587479164071</v>
+        <v>1.708176856601312</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.381503681798682</v>
@@ -11812,7 +11584,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.740762162026704</v>
+        <v>1.700067369200936</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.380402519442374</v>
@@ -11901,7 +11673,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.742267791673862</v>
+        <v>1.700534567453887</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.433631620277211</v>
@@ -11990,7 +11762,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.738641354399641</v>
+        <v>1.698822112783674</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.373969759974621</v>
@@ -12079,7 +11851,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.740148140324391</v>
+        <v>1.703639038369633</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.417500160533879</v>
@@ -12168,7 +11940,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.681130468173276</v>
+        <v>1.658332621250703</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.396231844480838</v>
@@ -12257,7 +12029,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.731369984821723</v>
+        <v>1.691435342523566</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.21163072459596</v>
@@ -12346,7 +12118,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.746587149920863</v>
+        <v>1.707673079403388</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.404481168082661</v>
@@ -12435,7 +12207,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.699123596331946</v>
+        <v>1.664120484201121</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.406625762583147</v>
@@ -12524,7 +12296,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.648418045509039</v>
+        <v>1.624686664074014</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.319605405349168</v>
@@ -12613,7 +12385,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.645770033622057</v>
+        <v>1.622870260429514</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.305864667503039</v>
@@ -12702,7 +12474,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.650280787402369</v>
+        <v>1.628634197765522</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.471806318380092</v>
@@ -12791,7 +12563,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.659637420418639</v>
+        <v>1.637317904059584</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.343594828476506</v>
@@ -12880,7 +12652,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.670695530845786</v>
+        <v>1.650426919084929</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.374604968254818</v>
@@ -12969,7 +12741,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.680188613544642</v>
+        <v>1.665938045747629</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.390840133239536</v>
@@ -13058,7 +12830,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.647286921390149</v>
+        <v>1.642794677731907</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.456665216625527</v>
@@ -13147,7 +12919,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.653769951065803</v>
+        <v>1.651862342721475</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.361238634972689</v>
@@ -13236,7 +13008,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.659486519581089</v>
+        <v>1.658221754330822</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.480768320612301</v>
@@ -13325,7 +13097,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.659242916056749</v>
+        <v>1.657859794450358</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.409091168157789</v>
@@ -13414,7 +13186,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.666262903716418</v>
+        <v>1.662067794340196</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.32143734611576</v>
@@ -13503,7 +13275,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.709206750244927</v>
+        <v>1.699207897604178</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.432489303775232</v>
@@ -13592,7 +13364,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.709488714317208</v>
+        <v>1.704204131950152</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.550417417734491</v>
@@ -13681,7 +13453,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.711601912996405</v>
+        <v>1.707602619681261</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.496733397843431</v>
@@ -13770,7 +13542,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.766380370636093</v>
+        <v>1.750065749137972</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.151506185811401</v>
@@ -13859,7 +13631,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.819024359202303</v>
+        <v>1.800946831070979</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.666542475683841</v>
@@ -13948,7 +13720,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.760752768657919</v>
+        <v>1.765125083038454</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.660782387703612</v>
@@ -14037,7 +13809,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.757532023641199</v>
+        <v>1.762666493695688</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.607894339213583</v>
@@ -14126,7 +13898,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.750225402221141</v>
+        <v>1.758346863664348</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.69358747636087</v>
@@ -14215,7 +13987,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.744064520465384</v>
+        <v>1.753332880422183</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.73813855375009</v>
@@ -14304,7 +14076,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.741119700537418</v>
+        <v>1.749445661845789</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.487762017987306</v>
@@ -14393,7 +14165,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.736773359206814</v>
+        <v>1.742917546014166</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.582190757848551</v>
@@ -14482,7 +14254,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.725025411683059</v>
+        <v>1.733795394828835</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.607781477055626</v>
@@ -14571,7 +14343,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.650835436744674</v>
+        <v>1.673438312916452</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.473340342111409</v>
@@ -14660,7 +14432,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.594588949168334</v>
+        <v>1.624049069548535</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.441086095221356</v>
@@ -14749,7 +14521,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.594810861600275</v>
+        <v>1.622272185905541</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.385553756347659</v>
@@ -14838,7 +14610,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.594982231240345</v>
+        <v>1.622458739203594</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.37633014199303</v>
@@ -14927,7 +14699,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.587540874095312</v>
+        <v>1.611925225600787</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.379273576514221</v>
@@ -15016,7 +14788,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.586981129133575</v>
+        <v>1.609975713323303</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.384397506224431</v>
@@ -15105,7 +14877,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.589934214836747</v>
+        <v>1.60774893928253</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.3755510083825</v>
@@ -15194,7 +14966,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.557002114970283</v>
+        <v>1.573077736616921</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.405911697952539</v>
@@ -15283,7 +15055,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.587747970244679</v>
+        <v>1.595925103076105</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.375404048650114</v>
@@ -15372,7 +15144,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.590194956850512</v>
+        <v>1.60420205775263</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.51131465459834</v>
@@ -15461,7 +15233,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.596901238476774</v>
+        <v>1.611529408434401</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.364151132824516</v>
@@ -15550,7 +15322,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.606449460426325</v>
+        <v>1.622674006144585</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.452977131050585</v>
@@ -15639,7 +15411,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.620101169406762</v>
+        <v>1.630822491680804</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.293413487479934</v>
@@ -15728,7 +15500,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.605272274093063</v>
+        <v>1.621954866846623</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.43578918391703</v>
@@ -15817,7 +15589,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.598956190714735</v>
+        <v>1.609836187891466</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.245127146138929</v>
@@ -15906,7 +15678,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.663563296658213</v>
+        <v>1.668993934908491</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.068543755859652</v>
@@ -15995,7 +15767,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.68742226055978</v>
+        <v>1.68623850818407</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.447199080071034</v>
@@ -16084,7 +15856,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.689460712769168</v>
+        <v>1.689734167380276</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.435555258575681</v>
@@ -16173,7 +15945,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.689866414510321</v>
+        <v>1.69082844443577</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.487099075203802</v>
@@ -16262,7 +16034,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.70331223047262</v>
+        <v>1.704615271187113</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.453483592782542</v>
@@ -16351,7 +16123,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.70328104968542</v>
+        <v>1.70556148415056</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.44299751981554</v>
@@ -16440,7 +16212,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.653695819632312</v>
+        <v>1.670477784601121</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.400679511991217</v>
@@ -16529,7 +16301,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.7032737763901</v>
+        <v>1.71527862897256</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.515619805316446</v>
@@ -16618,7 +16390,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.707582993405219</v>
+        <v>1.72336416165229</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.456360464404229</v>
@@ -16904,7 +16676,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.5434387741084</v>
+        <v>1.54509141409171</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.596619872815863</v>
@@ -16993,7 +16765,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.552261773381595</v>
+        <v>1.550955728687371</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.637013638872898</v>
@@ -17082,7 +16854,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.605345946555743</v>
+        <v>1.600112595880259</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.48272293173459</v>
@@ -17171,7 +16943,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.680599457664616</v>
+        <v>1.672741531402336</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.861736342945413</v>
@@ -17260,7 +17032,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.718849646496514</v>
+        <v>1.7094571363366</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.92699365556699</v>
@@ -17349,7 +17121,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.732704055652755</v>
+        <v>1.72349508118129</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.952561014481921</v>
@@ -17438,7 +17210,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.791431578658802</v>
+        <v>1.768360046817184</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.657042624161726</v>
@@ -17527,7 +17299,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.809165160984804</v>
+        <v>1.779855277866963</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.08783837637217</v>
@@ -17616,7 +17388,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.847980116306173</v>
+        <v>1.811898057524013</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.065097843477272</v>
@@ -17705,7 +17477,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.840083467989581</v>
+        <v>1.80569544477339</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.555098046776147</v>
@@ -17794,7 +17566,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.839695352174509</v>
+        <v>1.808094162207322</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.350300311707704</v>
@@ -17883,7 +17655,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.846924974808093</v>
+        <v>1.812740454000124</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.687433421141067</v>
@@ -17972,7 +17744,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.846253084792229</v>
+        <v>1.808859764582687</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.284175671721113</v>
@@ -18061,7 +17833,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.851294940225653</v>
+        <v>1.806473352857574</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.612865037873223</v>
@@ -18150,7 +17922,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.863099359290503</v>
+        <v>1.82396151114084</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.954259691785618</v>
@@ -18239,7 +18011,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.870511167428263</v>
+        <v>1.834088355374234</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.068065211706399</v>
@@ -18328,7 +18100,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.867966909601224</v>
+        <v>1.828554851573132</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.135773072494187</v>
@@ -18417,7 +18189,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.84939033483417</v>
+        <v>1.813715735348202</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.431049039051398</v>
@@ -18506,7 +18278,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.839251300856374</v>
+        <v>1.804158525262446</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.130545667051141</v>
@@ -18595,7 +18367,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.827965765705617</v>
+        <v>1.792231965525062</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.309174388551689</v>
@@ -18684,7 +18456,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.806326470157262</v>
+        <v>1.773359505169786</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.294327259243093</v>
@@ -18773,7 +18545,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.786177269037549</v>
+        <v>1.759993741064642</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.365971588719639</v>
@@ -18862,7 +18634,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.75941621618661</v>
+        <v>1.733182160308643</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.126906032123824</v>
@@ -18951,7 +18723,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.734439030664341</v>
+        <v>1.70775540241412</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.376508882646402</v>
@@ -19040,7 +18812,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.736223135180241</v>
+        <v>1.700055893832255</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.497568561689337</v>
@@ -19129,7 +18901,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.720383429872214</v>
+        <v>1.679236129216563</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.094598719703318</v>
@@ -19218,7 +18990,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.706308219546686</v>
+        <v>1.659601095598492</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.473957256442813</v>
@@ -19307,7 +19079,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.688334585343282</v>
+        <v>1.638397657572621</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.224618452979449</v>
@@ -19396,7 +19168,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.666825494471817</v>
+        <v>1.615389492083558</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.331798632210263</v>
@@ -19485,7 +19257,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.647126889354422</v>
+        <v>1.595772194904498</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.431175081699843</v>
@@ -19574,7 +19346,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.630407155749121</v>
+        <v>1.586084750862718</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.181098388537896</v>
@@ -19663,7 +19435,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.635694108933257</v>
+        <v>1.588862387562848</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.927095972413836</v>
@@ -19752,7 +19524,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.630485988963221</v>
+        <v>1.589123226958562</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.416762486034922</v>
@@ -19841,7 +19613,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.630849792637509</v>
+        <v>1.588102385955647</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.377771162182544</v>
@@ -19930,7 +19702,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.644517298465866</v>
+        <v>1.601302789552953</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.157710735638932</v>
@@ -20019,7 +19791,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.656393161008169</v>
+        <v>1.616733087289678</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.517230678869491</v>
@@ -20108,7 +19880,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.670932414368913</v>
+        <v>1.623003474458226</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.923606079077556</v>
@@ -20197,7 +19969,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.688872855423064</v>
+        <v>1.643008033414613</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.421636540239747</v>
@@ -20286,7 +20058,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.690411665434261</v>
+        <v>1.638369458846087</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.733809218900948</v>
@@ -20375,7 +20147,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.688973491431038</v>
+        <v>1.638573635185476</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.690292587721811</v>
@@ -20464,7 +20236,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.692669608090659</v>
+        <v>1.646660312417932</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.683492271874144</v>
@@ -20553,7 +20325,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.69555724756489</v>
+        <v>1.649721400543533</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.147106693157635</v>
@@ -20642,7 +20414,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.711978430580124</v>
+        <v>1.664514764047673</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.107812448529302</v>
@@ -20731,7 +20503,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.726405531372944</v>
+        <v>1.685033369004326</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.487522431684457</v>
@@ -20820,7 +20592,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.73117709651576</v>
+        <v>1.686703772815761</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.866206659590264</v>
@@ -20909,7 +20681,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.741089084877292</v>
+        <v>1.693843714667328</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.741486808403579</v>
@@ -20998,7 +20770,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.749459603201033</v>
+        <v>1.696847929884659</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.223651043025055</v>
@@ -21087,7 +20859,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.759101188946507</v>
+        <v>1.702432838406841</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.447160696204956</v>
@@ -21176,7 +20948,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.7702987978101</v>
+        <v>1.711460080070137</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.272051670753092</v>
@@ -21265,7 +21037,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.773618064973913</v>
+        <v>1.713755199429181</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.528001039296263</v>
@@ -21354,7 +21126,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.76489743316397</v>
+        <v>1.702880378058468</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.567684797192844</v>
@@ -21443,7 +21215,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.764443365369502</v>
+        <v>1.70235883324416</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.648558828597733</v>
@@ -21532,7 +21304,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.749983872911702</v>
+        <v>1.689209216188487</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.688693069220414</v>
@@ -21621,7 +21393,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.744634840378161</v>
+        <v>1.69308221765214</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.309242234530359</v>
@@ -21710,7 +21482,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.748522674163869</v>
+        <v>1.698517849267006</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.733267516281834</v>
@@ -21799,7 +21571,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.760171253808987</v>
+        <v>1.710398974996502</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.275431735353022</v>
@@ -21888,7 +21660,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.755661192714159</v>
+        <v>1.707538030417969</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.239838658139782</v>
@@ -21977,7 +21749,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.749185813439124</v>
+        <v>1.711868550130456</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.156216012705415</v>
@@ -22066,7 +21838,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.738512834550022</v>
+        <v>1.702691582132077</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.30705822883537</v>
@@ -22155,7 +21927,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.742482260691707</v>
+        <v>1.697887130696829</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.290037227479114</v>
@@ -22244,7 +22016,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.740741582780689</v>
+        <v>1.697251171464212</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.332027242758159</v>
@@ -22333,7 +22105,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.734484632600837</v>
+        <v>1.688426413778851</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.333899150998657</v>
@@ -22422,7 +22194,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.728331436544085</v>
+        <v>1.683674385985095</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.353211902773262</v>
@@ -22511,7 +22283,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.7283153946681</v>
+        <v>1.685148397460344</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.287678681930311</v>
@@ -22600,7 +22372,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.705421424872857</v>
+        <v>1.661445948319815</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.324138848307299</v>
@@ -22689,7 +22461,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.702480145198639</v>
+        <v>1.657114370059082</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.397349150312513</v>
@@ -22778,7 +22550,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.708357449245246</v>
+        <v>1.664516577855833</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.189267723196522</v>
@@ -22867,7 +22639,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.724630203317218</v>
+        <v>1.68071247513924</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.346087156943509</v>
@@ -22956,7 +22728,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.738696640559817</v>
+        <v>1.693837549352217</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.289301330338586</v>
@@ -23045,7 +22817,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.745437636395593</v>
+        <v>1.697314729466347</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.214495122769891</v>
@@ -23134,7 +22906,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.72597643413582</v>
+        <v>1.679882973269277</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.186606542780587</v>
@@ -23223,7 +22995,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.722720752291429</v>
+        <v>1.675633559414914</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.785832566090842</v>
@@ -23312,7 +23084,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.727195207065624</v>
+        <v>1.66871780593293</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.072499310410874</v>
@@ -23401,7 +23173,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.709945968614852</v>
+        <v>1.653737596985442</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.290486956733775</v>
@@ -23490,7 +23262,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.719897459462592</v>
+        <v>1.669913979169858</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.26689039172806</v>
@@ -23579,7 +23351,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.723408767349592</v>
+        <v>1.669118200506605</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.312838954069181</v>
@@ -23668,7 +23440,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.728889137972009</v>
+        <v>1.674131366465192</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.284083617154046</v>
@@ -23757,7 +23529,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.734184234643301</v>
+        <v>1.679473722486568</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.237021667986228</v>
@@ -23846,7 +23618,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.721063115508946</v>
+        <v>1.668650589075126</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.964174084679543</v>
@@ -23935,7 +23707,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.744040888024998</v>
+        <v>1.691373814367091</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.206982006586911</v>
@@ -24024,7 +23796,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.73783836277528</v>
+        <v>1.690371785919986</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.996785860104694</v>
@@ -24310,7 +24082,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.686977352238656</v>
+        <v>1.670775913522309</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.61976572146988</v>
@@ -24399,7 +24171,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.68996209675767</v>
+        <v>1.667627691223892</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.577398667746347</v>
@@ -24488,7 +24260,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.752299064023221</v>
+        <v>1.720091980383212</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.411704837778859</v>
@@ -24577,7 +24349,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.795054199176322</v>
+        <v>1.753048425310959</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.257944182319859</v>
@@ -24666,7 +24438,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.80540111642204</v>
+        <v>1.761085696614141</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.447795434297443</v>
@@ -24755,7 +24527,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.804012970481212</v>
+        <v>1.763875903831023</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.459848828434992</v>
@@ -24844,7 +24616,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.834680029877297</v>
+        <v>1.781091563702295</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.102323092944291</v>
@@ -24933,7 +24705,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.846881446173737</v>
+        <v>1.790841581770096</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.420208405282775</v>
@@ -25022,7 +24794,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.860180364385686</v>
+        <v>1.800705112511657</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.390265534601208</v>
@@ -25111,7 +24883,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.852402253312665</v>
+        <v>1.790261861377668</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.779071502344735</v>
@@ -25200,7 +24972,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.856106160375982</v>
+        <v>1.797679959456897</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.205023091708511</v>
@@ -25289,7 +25061,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.854964256608371</v>
+        <v>1.796464652991596</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.701433226607921</v>
@@ -25378,7 +25150,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.858875977241434</v>
+        <v>1.796872675839795</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.158576563270877</v>
@@ -25467,7 +25239,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.855422263023034</v>
+        <v>1.791853584914318</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.685783940863458</v>
@@ -25556,7 +25328,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.865428057388242</v>
+        <v>1.807547799124144</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.575192631968488</v>
@@ -25645,7 +25417,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.866209373721204</v>
+        <v>1.811640518483453</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.82862081909277</v>
@@ -25734,7 +25506,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.870132456888235</v>
+        <v>1.81982178016289</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.770211205045468</v>
@@ -25823,7 +25595,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.858767441589556</v>
+        <v>1.816822506078095</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.534166329089382</v>
@@ -25912,7 +25684,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.854853318282819</v>
+        <v>1.814903799312113</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.514250684047739</v>
@@ -26001,7 +25773,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.850390863401518</v>
+        <v>1.810838583103087</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.718098899056745</v>
@@ -26090,7 +25862,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.844352879078434</v>
+        <v>1.797579671459878</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.689485371761464</v>
@@ -26179,7 +25951,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.841983028397565</v>
+        <v>1.795969059301415</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.497211468379438</v>
@@ -26268,7 +26040,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.830258907956754</v>
+        <v>1.788095529900148</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.525540552770869</v>
@@ -26357,7 +26129,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.818570543616859</v>
+        <v>1.777036982468874</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.550232613089661</v>
@@ -26446,7 +26218,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.825306413117779</v>
+        <v>1.776744048779368</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.324371274429165</v>
@@ -26535,7 +26307,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.824294899578415</v>
+        <v>1.774982142480809</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.342061643688913</v>
@@ -26624,7 +26396,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.826431427374267</v>
+        <v>1.775223303143469</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.111189456203239</v>
@@ -26713,7 +26485,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.809937482290555</v>
+        <v>1.761728983917395</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.710020739657974</v>
@@ -26802,7 +26574,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.809357572140525</v>
+        <v>1.75341411748955</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.873863539158566</v>
@@ -26891,7 +26663,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.806362223005234</v>
+        <v>1.744194473916571</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.678299483876032</v>
@@ -26980,7 +26752,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.7949478235564</v>
+        <v>1.735056789978737</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.02175002621285</v>
@@ -27069,7 +26841,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.803146150218024</v>
+        <v>1.738464598120436</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.171734091550473</v>
@@ -27158,7 +26930,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.804586606772303</v>
+        <v>1.734986934117825</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.790906882389805</v>
@@ -27247,7 +27019,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.791188150138617</v>
+        <v>1.72146717624159</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.551463746697059</v>
@@ -27336,7 +27108,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.787692870144122</v>
+        <v>1.715251898479781</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.232448939712453</v>
@@ -27425,7 +27197,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.793753875559564</v>
+        <v>1.725627149878509</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.610013108523406</v>
@@ -27514,7 +27286,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.796419925694183</v>
+        <v>1.72646489489586</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.06603789965432</v>
@@ -27603,7 +27375,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.801281698144632</v>
+        <v>1.72935308151743</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.252042288423593</v>
@@ -27692,7 +27464,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.810938375411037</v>
+        <v>1.739811895550448</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.095661160614918</v>
@@ -27781,7 +27553,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.813558759317872</v>
+        <v>1.738337862114501</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.87646991832446</v>
@@ -27870,7 +27642,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.80581489377621</v>
+        <v>1.734287450893911</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.926548163889311</v>
@@ -27959,7 +27731,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.804328000426246</v>
+        <v>1.728160432652835</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.221774602939088</v>
@@ -28048,7 +27820,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.808960995561436</v>
+        <v>1.731701471400196</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.001239966349867</v>
@@ -28137,7 +27909,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.808328829610908</v>
+        <v>1.733201370861749</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.037863324662696</v>
@@ -28226,7 +27998,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.812417677489722</v>
+        <v>1.743234734946883</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.591567615615775</v>
@@ -28315,7 +28087,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.816892097154813</v>
+        <v>1.739874122453948</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.649216974576191</v>
@@ -28404,7 +28176,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.818339529347084</v>
+        <v>1.744249916841759</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.424015501062778</v>
@@ -28493,7 +28265,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.826322688353984</v>
+        <v>1.753672216906529</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.196192066855893</v>
@@ -28582,7 +28354,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.838205699047003</v>
+        <v>1.761575654020839</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.392834191970721</v>
@@ -28671,7 +28443,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.847196086998203</v>
+        <v>1.772271765496089</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.397456045111326</v>
@@ -28760,7 +28532,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.837678653923965</v>
+        <v>1.765457054621462</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.915170190487419</v>
@@ -28849,7 +28621,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.835742365616545</v>
+        <v>1.766592400042638</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.085472505510886</v>
@@ -28938,7 +28710,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.83558274573652</v>
+        <v>1.766219987722929</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.786031171156983</v>
@@ -29027,7 +28799,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.82438110726573</v>
+        <v>1.758435944616705</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.942533533810261</v>
@@ -29116,7 +28888,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.819639073139803</v>
+        <v>1.757957135612701</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.784982978024317</v>
@@ -29205,7 +28977,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.828072285302704</v>
+        <v>1.766500013032145</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.707767795045985</v>
@@ -29294,7 +29066,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.828345637680713</v>
+        <v>1.765990225910514</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.115664206671523</v>
@@ -29383,7 +29155,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.816273520707752</v>
+        <v>1.765256736509336</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.488336013902232</v>
@@ -29472,7 +29244,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.80945261390192</v>
+        <v>1.761930563638281</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.548703317949686</v>
@@ -29561,7 +29333,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.810676390398412</v>
+        <v>1.756260639036064</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.9733725059396</v>
@@ -29650,7 +29422,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.81077578698198</v>
+        <v>1.758776083913292</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.5306540911169</v>
@@ -29739,7 +29511,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.798072854155758</v>
+        <v>1.742000584793011</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.916292724141689</v>
@@ -29828,7 +29600,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.796295062162294</v>
+        <v>1.743471503430553</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.496592620178224</v>
@@ -29917,7 +29689,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.806741247414239</v>
+        <v>1.752891163785035</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.835115583020294</v>
@@ -30006,7 +29778,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.798946152116848</v>
+        <v>1.745719047054315</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.495906502639792</v>
@@ -30095,7 +29867,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.79446441693723</v>
+        <v>1.738256294941277</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.540067823338038</v>
@@ -30184,7 +29956,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.797105974825893</v>
+        <v>1.741714375059899</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.796218617187697</v>
@@ -30273,7 +30045,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.805448392962889</v>
+        <v>1.748965390794592</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.157295780618829</v>
@@ -30362,7 +30134,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.810300177430666</v>
+        <v>1.748726593525941</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.332203901168265</v>
@@ -30451,7 +30223,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.817524822992816</v>
+        <v>1.75666472590816</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.180011663442197</v>
@@ -30540,7 +30312,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.804985950839021</v>
+        <v>1.746493436067703</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.608981408507809</v>
@@ -30629,7 +30401,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.79948253245387</v>
+        <v>1.74270185456033</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.902151958588737</v>
@@ -30718,7 +30490,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.806235520971575</v>
+        <v>1.742924041219994</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.094394731757538</v>
@@ -30807,7 +30579,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.798332777520591</v>
+        <v>1.736830738924435</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.50293396488092</v>
@@ -30896,7 +30668,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.797367393153105</v>
+        <v>1.741954872154472</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.315196893492083</v>
@@ -30985,7 +30757,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.802993093188583</v>
+        <v>1.750740006740281</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.468046846847399</v>
@@ -31074,7 +30846,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.811010276420999</v>
+        <v>1.759728780269907</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.603716919149294</v>
@@ -31163,7 +30935,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.805056509575094</v>
+        <v>1.753680969262297</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.365608494511218</v>
@@ -31252,7 +31024,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.788575945961298</v>
+        <v>1.738426151753313</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.361878087203792</v>
@@ -31341,7 +31113,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.801623765467208</v>
+        <v>1.748993860065402</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.266435260726408</v>
@@ -31430,7 +31202,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.804580893858844</v>
+        <v>1.757760661631881</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.49759987924675</v>
@@ -31716,7 +31488,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.629234742665034</v>
+        <v>1.630026875289647</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.415372407203027</v>
@@ -31805,7 +31577,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.637627613481891</v>
+        <v>1.636686729473587</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.346795906429653</v>
@@ -31894,7 +31666,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.652997088371462</v>
+        <v>1.646156825866734</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.145013714720382</v>
@@ -31983,7 +31755,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.698977834776219</v>
+        <v>1.670760603592011</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.065263182213144</v>
@@ -32072,7 +31844,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.700358100442251</v>
+        <v>1.673174042494983</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.137110345814226</v>
@@ -32161,7 +31933,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.705282467969768</v>
+        <v>1.681521037225763</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.117149206578236</v>
@@ -32250,7 +32022,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.775676755817969</v>
+        <v>1.729596846925738</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.30309396225762</v>
@@ -32339,7 +32111,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.813810152022374</v>
+        <v>1.749907514819975</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.824419712210938</v>
@@ -32428,7 +32200,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.830061518068252</v>
+        <v>1.767460291965848</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.612564784618994</v>
@@ -32517,7 +32289,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.847017499066952</v>
+        <v>1.778212491590996</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.689319177350194</v>
@@ -32606,7 +32378,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.854717642747447</v>
+        <v>1.784690631563568</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.059980216070796</v>
@@ -32695,7 +32467,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.852414330314999</v>
+        <v>1.788893188006946</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.284748484028657</v>
@@ -32784,7 +32556,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.850278357483457</v>
+        <v>1.782188195785773</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.388121163754775</v>
@@ -32873,7 +32645,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.855920605360969</v>
+        <v>1.787123926177101</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.315332606213934</v>
@@ -32962,7 +32734,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.85890354458542</v>
+        <v>1.795786738627984</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.266899716445173</v>
@@ -33051,7 +32823,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.856571158966975</v>
+        <v>1.794540416905388</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.428692710196093</v>
@@ -33140,7 +32912,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.858613912140948</v>
+        <v>1.798748856761631</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.130268880506852</v>
@@ -33229,7 +33001,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.861064349083708</v>
+        <v>1.794329326787224</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.045878093007543</v>
@@ -33318,7 +33090,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.856543610187488</v>
+        <v>1.788085828111674</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.198198775202205</v>
@@ -33407,7 +33179,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.853372831097807</v>
+        <v>1.783462217442125</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.786053482567239</v>
@@ -33496,7 +33268,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.836808516717385</v>
+        <v>1.768263560024121</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.180501753772805</v>
@@ -33585,7 +33357,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.826086522214351</v>
+        <v>1.76390112250587</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.878586453730044</v>
@@ -33674,7 +33446,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.806066761441116</v>
+        <v>1.751607041967047</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.837527591422987</v>
@@ -33763,7 +33535,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.793176816264353</v>
+        <v>1.729913288436442</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.600015047463932</v>
@@ -33852,7 +33624,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.788117832408605</v>
+        <v>1.726480605054417</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.091887577597821</v>
@@ -33941,7 +33713,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.779548977038239</v>
+        <v>1.715938058341145</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.761157737418883</v>
@@ -34030,7 +33802,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.775768658244702</v>
+        <v>1.703639520862045</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.860670435594576</v>
@@ -34119,7 +33891,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.762449124051471</v>
+        <v>1.688574329508665</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.986819314556451</v>
@@ -34208,7 +33980,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.753756862142665</v>
+        <v>1.682816377729333</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.152229337101978</v>
@@ -34297,7 +34069,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.747889156117048</v>
+        <v>1.683506416251979</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.599451073315742</v>
@@ -34386,7 +34158,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.748266238207813</v>
+        <v>1.682609197459607</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.419926620320811</v>
@@ -34475,7 +34247,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.745491814126602</v>
+        <v>1.677812674222788</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.900195231367871</v>
@@ -34564,7 +34336,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.733707153505395</v>
+        <v>1.65808027618724</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.693390964984086</v>
@@ -34653,7 +34425,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.741935146041999</v>
+        <v>1.66002740614315</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.818281260936346</v>
@@ -34742,7 +34514,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.740359200620698</v>
+        <v>1.654183651562209</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.770055838706291</v>
@@ -34831,7 +34603,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.741316110078971</v>
+        <v>1.6597168243638</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.838230396349365</v>
@@ -34920,7 +34692,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.748549201235043</v>
+        <v>1.662743495462816</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.888019614777965</v>
@@ -35009,7 +34781,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.761006525296914</v>
+        <v>1.672272091273542</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.786998510961692</v>
@@ -35098,7 +34870,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.762579949297321</v>
+        <v>1.681022372181984</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.792556230308545</v>
@@ -35187,7 +34959,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.760408338532967</v>
+        <v>1.67938345984423</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.888495552168976</v>
@@ -35276,7 +35048,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.756391235846744</v>
+        <v>1.679886893376363</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.675905402918219</v>
@@ -35365,7 +35137,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.763113308543816</v>
+        <v>1.683300897803324</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.834326270993398</v>
@@ -35454,7 +35226,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.773727766407094</v>
+        <v>1.696215385173463</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.515850039016977</v>
@@ -35543,7 +35315,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.781098994196597</v>
+        <v>1.702960576836156</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.632553489416551</v>
@@ -35632,7 +35404,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.780436379489403</v>
+        <v>1.695551162110609</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.624389566619679</v>
@@ -35721,7 +35493,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.772055204012781</v>
+        <v>1.685102918794209</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.544561192110209</v>
@@ -35810,7 +35582,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.779976869780097</v>
+        <v>1.689547053117049</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.014676177195011</v>
@@ -35899,7 +35671,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.789079080372075</v>
+        <v>1.702953094925842</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.025835229546634</v>
@@ -35988,7 +35760,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.791161110835847</v>
+        <v>1.709542207305523</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.404772430246286</v>
@@ -36077,7 +35849,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.793577377558166</v>
+        <v>1.711416365667197</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.109590291079094</v>
@@ -36166,7 +35938,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.791462338116018</v>
+        <v>1.707699031047395</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.085048136122334</v>
@@ -36255,7 +36027,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.796676147776804</v>
+        <v>1.710900994405845</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.853717675669307</v>
@@ -36344,7 +36116,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.792919794568878</v>
+        <v>1.706110746639207</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.67257548956113</v>
@@ -36433,7 +36205,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.792242815859505</v>
+        <v>1.707437674285876</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.861186241660253</v>
@@ -36522,7 +36294,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.793608251274571</v>
+        <v>1.709344512706533</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.986016489092732</v>
@@ -36611,7 +36383,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.791736401423127</v>
+        <v>1.706229334272048</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.646662008275129</v>
@@ -36700,7 +36472,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.800147024789181</v>
+        <v>1.719719885619568</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.0044396387757</v>
@@ -36789,7 +36561,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.809439012767861</v>
+        <v>1.732229519242112</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.086828100359445</v>
@@ -36878,7 +36650,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.809166207661653</v>
+        <v>1.7357319275251</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.403478464601335</v>
@@ -36967,7 +36739,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.807020361399731</v>
+        <v>1.734998437753545</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.962635604644722</v>
@@ -37056,7 +36828,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.803850113648984</v>
+        <v>1.731475309894993</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.093606767500961</v>
@@ -37145,7 +36917,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.797797489287038</v>
+        <v>1.722229244332248</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.253134360102528</v>
@@ -37234,7 +37006,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.792244013072835</v>
+        <v>1.721358078771982</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.226440228268443</v>
@@ -37323,7 +37095,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.792134627181854</v>
+        <v>1.725263559800367</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.93494352213221</v>
@@ -37412,7 +37184,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.780150355919538</v>
+        <v>1.714572656941843</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.532405315465787</v>
@@ -37501,7 +37273,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.783854270610806</v>
+        <v>1.714460058904263</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.521693914111419</v>
@@ -37590,7 +37362,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.777749867264468</v>
+        <v>1.70897315473753</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.705842000570339</v>
@@ -37679,7 +37451,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.787258689249148</v>
+        <v>1.720087661172362</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.306279538354015</v>
@@ -37768,7 +37540,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.792569296867216</v>
+        <v>1.728383004622198</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.33938357782813</v>
@@ -37857,7 +37629,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.798986330965807</v>
+        <v>1.738457739289502</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.426728409957692</v>
@@ -37946,7 +37718,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.807538893526783</v>
+        <v>1.745051492900163</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.577632047087776</v>
@@ -38035,7 +37807,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.801012364992071</v>
+        <v>1.733237391133924</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.616840051536627</v>
@@ -38124,7 +37896,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.792753984743589</v>
+        <v>1.72609885886442</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.695278070728554</v>
@@ -38213,7 +37985,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.784377152448827</v>
+        <v>1.716595353291456</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.422752698225187</v>
@@ -38302,7 +38074,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.792698430410926</v>
+        <v>1.725390062897508</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.528921289500794</v>
@@ -38391,7 +38163,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.789620139971258</v>
+        <v>1.728920305979209</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.571203441590945</v>
@@ -38480,7 +38252,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.799658971923201</v>
+        <v>1.745259760427949</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.563782276322409</v>
@@ -38569,7 +38341,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.803756303610062</v>
+        <v>1.745461081695791</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.425778450265054</v>
@@ -38658,7 +38430,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.800083796678565</v>
+        <v>1.739495488553976</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.430371181921845</v>
@@ -38747,7 +38519,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.82060081942623</v>
+        <v>1.756516050072292</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.684119258710175</v>
@@ -38836,7 +38608,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.818224491630108</v>
+        <v>1.760267488791635</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.441700228252036</v>
@@ -39122,7 +38894,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.521031601764969</v>
+        <v>1.497970869587471</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.058101210920237</v>
@@ -39211,7 +38983,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.518882965249632</v>
+        <v>1.490485411017659</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.061496544646543</v>
@@ -39300,7 +39072,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.583464265863689</v>
+        <v>1.551109629203433</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.383064995464333</v>
@@ -39389,7 +39161,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.653217136860875</v>
+        <v>1.619681250201466</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.661186340379385</v>
@@ -39478,7 +39250,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.674930938603659</v>
+        <v>1.646062057971441</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.618383756989644</v>
@@ -39567,7 +39339,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.673007230547798</v>
+        <v>1.647260742528266</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.666717768200058</v>
@@ -39656,7 +39428,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.729524842453422</v>
+        <v>1.686476287273802</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.52760412019494</v>
@@ -39745,7 +39517,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.756183093182065</v>
+        <v>1.710611009905201</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.00996104804234</v>
@@ -39834,7 +39606,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.789416330024696</v>
+        <v>1.738211101226057</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.859425082891175</v>
@@ -39923,7 +39695,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.789170911123885</v>
+        <v>1.73781844984</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.107963381978784</v>
@@ -40012,7 +39784,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.792533251730184</v>
+        <v>1.748976577034089</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.256715560742926</v>
@@ -40101,7 +39873,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.80084786836708</v>
+        <v>1.757887615998611</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.314346104815287</v>
@@ -40190,7 +39962,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.800561147876987</v>
+        <v>1.751118511185476</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.101194277958992</v>
@@ -40279,7 +40051,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.807706377668619</v>
+        <v>1.756723860016043</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.451910431393221</v>
@@ -40368,7 +40140,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.819277418830257</v>
+        <v>1.772163623800678</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.703619587501623</v>
@@ -40457,7 +40229,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.82690648081495</v>
+        <v>1.776049665611657</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.44615353242323</v>
@@ -40546,7 +40318,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.831429156375497</v>
+        <v>1.778167022289462</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.387916050972615</v>
@@ -40635,7 +40407,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.817201912165017</v>
+        <v>1.774798745055427</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.549029522461521</v>
@@ -40724,7 +40496,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.804276330316207</v>
+        <v>1.764654012510661</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.658967871462881</v>
@@ -40813,7 +40585,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.797970502415792</v>
+        <v>1.758743800360653</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.306224114371473</v>
@@ -40902,7 +40674,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.791341849900389</v>
+        <v>1.745142720488835</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.74623751911221</v>
@@ -40991,7 +40763,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.772040454265756</v>
+        <v>1.732930729454978</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.621092948147515</v>
@@ -41080,7 +40852,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.753658550810458</v>
+        <v>1.721478383620585</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.564596034428459</v>
@@ -41169,7 +40941,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.738666199196432</v>
+        <v>1.699915282540322</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.569475119893213</v>
@@ -41258,7 +41030,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.744850422760368</v>
+        <v>1.702571050527316</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.270954059527869</v>
@@ -41347,7 +41119,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.740289539323803</v>
+        <v>1.694490632631954</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.596200282019389</v>
@@ -41436,7 +41208,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.73110394411631</v>
+        <v>1.675107795803396</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.308054435562378</v>
@@ -41525,7 +41297,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.720853361049813</v>
+        <v>1.657844676459288</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.425624832363463</v>
@@ -41614,7 +41386,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.709174204750623</v>
+        <v>1.650518315010458</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.473671107531412</v>
@@ -41703,7 +41475,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.697050212711311</v>
+        <v>1.640611250772734</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.285700303149538</v>
@@ -41792,7 +41564,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.680397941560192</v>
+        <v>1.626028214736454</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.538287376828284</v>
@@ -41881,7 +41653,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.679694576458219</v>
+        <v>1.625149608616894</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.893124246906424</v>
@@ -41970,7 +41742,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.672276587015478</v>
+        <v>1.611275495681566</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.541773816748698</v>
@@ -42059,7 +41831,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.67253186919344</v>
+        <v>1.606894014282429</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.438500223061008</v>
@@ -42148,7 +41920,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.670275715907763</v>
+        <v>1.598990988629069</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.460459101884253</v>
@@ -42237,7 +42009,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.672128416663825</v>
+        <v>1.602701725049456</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.210840736902196</v>
@@ -42326,7 +42098,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.691475764602815</v>
+        <v>1.613228253931896</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.37637214674522</v>
@@ -42415,7 +42187,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.700131357249789</v>
+        <v>1.615892653146135</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.268949714262962</v>
@@ -42504,7 +42276,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.693989612338264</v>
+        <v>1.609684261204091</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.497370735337304</v>
@@ -42593,7 +42365,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.696474264183311</v>
+        <v>1.608683857241622</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.440229916239499</v>
@@ -42682,7 +42454,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.686586909931738</v>
+        <v>1.603590789261824</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.481393995304317</v>
@@ -42771,7 +42543,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.695737363204072</v>
+        <v>1.612522864647167</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.032108253657403</v>
@@ -42860,7 +42632,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.707063431148615</v>
+        <v>1.627429645509185</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.225004737992454</v>
@@ -42949,7 +42721,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.708642683526082</v>
+        <v>1.629715170387551</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.043242991634763</v>
@@ -43038,7 +42810,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.705604408010123</v>
+        <v>1.623142322171846</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.097994466495489</v>
@@ -43127,7 +42899,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.717408221136556</v>
+        <v>1.633227034907557</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.313368788512595</v>
@@ -43216,7 +42988,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.731240859916924</v>
+        <v>1.644678589774492</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.071903660796469</v>
@@ -43305,7 +43077,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.741123547598305</v>
+        <v>1.657395593584191</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.301638805687936</v>
@@ -43394,7 +43166,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.747654203320257</v>
+        <v>1.665617989439708</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.150660162369066</v>
@@ -43483,7 +43255,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.75574191954764</v>
+        <v>1.678890634710023</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.215704781930651</v>
@@ -43572,7 +43344,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.745386004711528</v>
+        <v>1.673774947129366</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.527174632171604</v>
@@ -43661,7 +43433,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.740851008421084</v>
+        <v>1.673187166537112</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.440422362026604</v>
@@ -43750,7 +43522,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.737187759023143</v>
+        <v>1.667408473902933</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.128133251940826</v>
@@ -43839,7 +43611,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.730083935286187</v>
+        <v>1.6650611353697</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.429277473947661</v>
@@ -43928,7 +43700,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.722337090917459</v>
+        <v>1.652511603622456</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.518643153701116</v>
@@ -44017,7 +43789,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.725050986360649</v>
+        <v>1.656154471869017</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.898494598697016</v>
@@ -44106,7 +43878,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.721213006264901</v>
+        <v>1.655787572651704</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.947438604093851</v>
@@ -44195,7 +43967,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.702967385816921</v>
+        <v>1.657828935787361</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.898698307927277</v>
@@ -44284,7 +44056,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.703819474500369</v>
+        <v>1.661730064398274</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.035791248848131</v>
@@ -44373,7 +44145,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.710013156288327</v>
+        <v>1.659817478256141</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.882681266365704</v>
@@ -44462,7 +44234,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.705370787613718</v>
+        <v>1.652590298841041</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.036987671765775</v>
@@ -44551,7 +44323,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.698543784971555</v>
+        <v>1.644311685334418</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.004075020372051</v>
@@ -44640,7 +44412,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.692279777034759</v>
+        <v>1.638590949528699</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.043006758529637</v>
@@ -44729,7 +44501,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.695315008875362</v>
+        <v>1.643276498204859</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.902298596260575</v>
@@ -44818,7 +44590,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.68390355137955</v>
+        <v>1.630545766193005</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.064592396351165</v>
@@ -44907,7 +44679,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.684840380184362</v>
+        <v>1.627308313082407</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.017635332263936</v>
@@ -44996,7 +44768,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.69468182159708</v>
+        <v>1.637576759807471</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.888996528877471</v>
@@ -45085,7 +44857,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.709883152860691</v>
+        <v>1.653913237356797</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.024561797640326</v>
@@ -45174,7 +44946,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.720736454727671</v>
+        <v>1.668775693928588</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.968479117000253</v>
@@ -45263,7 +45035,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.738570515725808</v>
+        <v>1.695517105971414</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.904497864977722</v>
@@ -45352,7 +45124,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.731101742419115</v>
+        <v>1.690924137281715</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.150066008760834</v>
@@ -45441,7 +45213,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.737244808808072</v>
+        <v>1.695011773364762</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.4963987426739</v>
@@ -45530,7 +45302,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.749934916859703</v>
+        <v>1.690953326779517</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.909067265231049</v>
@@ -45619,7 +45391,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.732210494678143</v>
+        <v>1.672009671301904</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.4282348394058</v>
@@ -45708,7 +45480,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.744705451217648</v>
+        <v>1.69265611906459</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.469193333075343</v>
@@ -45797,7 +45569,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.750248848411448</v>
+        <v>1.702076135625944</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.312684007032154</v>
@@ -45886,7 +45658,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.760587502203023</v>
+        <v>1.713533133020492</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.1331970721377</v>
@@ -45975,7 +45747,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.764043079590055</v>
+        <v>1.717287837860967</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.23493945018646</v>
@@ -46064,7 +45836,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.75898691391035</v>
+        <v>1.71108869458046</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.107713846590399</v>
@@ -46153,7 +45925,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.773615419918098</v>
+        <v>1.730284077353284</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.296676370443623</v>
@@ -46242,7 +46014,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.768791044359841</v>
+        <v>1.725727447544278</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.34077563087555</v>
@@ -46528,7 +46300,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.52372299996808</v>
+        <v>1.560127232153045</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.339661412700895</v>
@@ -46617,7 +46389,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.550675976947372</v>
+        <v>1.58482059190218</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.226938477921647</v>
@@ -46706,7 +46478,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.592148104460232</v>
+        <v>1.618537194369383</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.087729754971901</v>
@@ -46795,7 +46567,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.573732639483582</v>
+        <v>1.594394351920293</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.144165682544314</v>
@@ -46884,7 +46656,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.625082347539182</v>
+        <v>1.641240064679343</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.029761400381908</v>
@@ -46973,7 +46745,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.596536975146281</v>
+        <v>1.616849617294956</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.108826462868155</v>
@@ -47062,7 +46834,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.636582707084832</v>
+        <v>1.652600934981244</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.517253427475594</v>
@@ -47151,7 +46923,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.697343797450849</v>
+        <v>1.706355226829754</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.603400777034683</v>
@@ -47240,7 +47012,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.710155093542258</v>
+        <v>1.726387652779958</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.392437476870768</v>
@@ -47329,7 +47101,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.692517570111317</v>
+        <v>1.703376649733666</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.463412866315424</v>
@@ -47418,7 +47190,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.683967632675595</v>
+        <v>1.703203200011775</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.378287430801549</v>
@@ -47507,7 +47279,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.686532464938629</v>
+        <v>1.704933499102222</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.404302417428903</v>
@@ -47596,7 +47368,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.71350534971005</v>
+        <v>1.728748561355246</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.260167147070508</v>
@@ -47685,7 +47457,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.739072712199476</v>
+        <v>1.750395277393422</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.395088112884573</v>
@@ -47774,7 +47546,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.73777021159293</v>
+        <v>1.744861498870529</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.335811013596825</v>
@@ -47863,7 +47635,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.735270293690509</v>
+        <v>1.741965406063531</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.354543506207118</v>
@@ -47952,7 +47724,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.730815955309426</v>
+        <v>1.723272089145758</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.374559965952396</v>
@@ -48041,7 +47813,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.682468996114662</v>
+        <v>1.69292361020957</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.330768440797397</v>
@@ -48130,7 +47902,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.683676153646219</v>
+        <v>1.692751896228138</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.42106878329711</v>
@@ -48219,7 +47991,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.688478805396754</v>
+        <v>1.699546765827659</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.334154338948752</v>
@@ -48308,7 +48080,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.737156342413802</v>
+        <v>1.730847673360348</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.309297299695493</v>
@@ -48397,7 +48169,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.732843572345643</v>
+        <v>1.724200026771266</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.38982250352112</v>
@@ -48486,7 +48258,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.723500774504205</v>
+        <v>1.713146739520917</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.439131913288387</v>
@@ -48575,7 +48347,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.72037469836748</v>
+        <v>1.704511472639582</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.352007711123616</v>
@@ -48664,7 +48436,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.767059471610438</v>
+        <v>1.744726739884403</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.30112839540901</v>
@@ -48753,7 +48525,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.772907226291253</v>
+        <v>1.747835014204003</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.495680023648795</v>
@@ -48842,7 +48614,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.76849396302407</v>
+        <v>1.738266396257352</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.551883235237429</v>
@@ -48931,7 +48703,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.736273637597855</v>
+        <v>1.712952151463671</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.44819621824077</v>
@@ -49020,7 +48792,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.730445844969599</v>
+        <v>1.710593822632261</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.496644544353524</v>
@@ -49109,7 +48881,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.729942066959564</v>
+        <v>1.712258262542539</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.491373720935694</v>
@@ -49198,7 +48970,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.683244422337219</v>
+        <v>1.673053733624551</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.520415227856193</v>
@@ -49287,7 +49059,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.72129046612671</v>
+        <v>1.700538441008455</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.325142488745071</v>
@@ -49376,7 +49148,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.720806319001214</v>
+        <v>1.697473688353458</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.537078714565359</v>
@@ -49465,7 +49237,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.675319356378492</v>
+        <v>1.656463961428629</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.4924360391638</v>
@@ -49554,7 +49326,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.627402912502504</v>
+        <v>1.617245145191153</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.443043369724537</v>
@@ -49643,7 +49415,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.634450142169393</v>
+        <v>1.631598363874981</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.547638618207612</v>
@@ -49732,7 +49504,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.645154259781716</v>
+        <v>1.645366266508673</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.541235232988007</v>
@@ -49821,7 +49593,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.653614259084664</v>
+        <v>1.657779886882304</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.543008247363379</v>
@@ -49910,7 +49682,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.65772875393624</v>
+        <v>1.662040783663805</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.543045849952775</v>
@@ -49999,7 +49771,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.657926377318376</v>
+        <v>1.663872775181271</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.536960325232131</v>
@@ -50088,7 +49860,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.623035369689817</v>
+        <v>1.635673473342181</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.58363481991504</v>
@@ -50177,7 +49949,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.63509588340837</v>
+        <v>1.647778692241298</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.474934729688397</v>
@@ -50266,7 +50038,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.659557541341637</v>
+        <v>1.671961047211469</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.425151744969527</v>
@@ -50355,7 +50127,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.659323697116605</v>
+        <v>1.672455519567076</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.565356525324182</v>
@@ -50444,7 +50216,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.661658765161556</v>
+        <v>1.670227993113797</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.388583775727617</v>
@@ -50533,7 +50305,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.695708182627879</v>
+        <v>1.69892321598539</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.404420556313419</v>
@@ -50622,7 +50394,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.694960449550183</v>
+        <v>1.701233201608744</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.446099366169074</v>
@@ -50711,7 +50483,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.708373405183036</v>
+        <v>1.71873749370773</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.516496904207012</v>
@@ -50800,7 +50572,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.771449996428648</v>
+        <v>1.766847897480246</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.128592725593497</v>
@@ -50889,7 +50661,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.816772771037634</v>
+        <v>1.810454437989141</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.712355228315213</v>
@@ -50978,7 +50750,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.763367724019354</v>
+        <v>1.768247255843474</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.615084141926574</v>
@@ -51067,7 +50839,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.760472440577977</v>
+        <v>1.764108746394382</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.662720908111199</v>
@@ -51156,7 +50928,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.760898017959966</v>
+        <v>1.763297819736855</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.880507378644349</v>
@@ -51245,7 +51017,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.760675224317993</v>
+        <v>1.7637600723728</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.625779045964228</v>
@@ -51334,7 +51106,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.75888607606917</v>
+        <v>1.758177149791607</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.525028547883161</v>
@@ -51423,7 +51195,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.754170874537646</v>
+        <v>1.750103249233969</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.707984933762975</v>
@@ -51512,7 +51284,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.73755689191667</v>
+        <v>1.738836746089317</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.659531360971788</v>
@@ -51601,7 +51373,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.670821137432191</v>
+        <v>1.686830524548786</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.532235251378658</v>
@@ -51690,7 +51462,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.604594454933888</v>
+        <v>1.623516455226291</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.36320580293041</v>
@@ -51779,7 +51551,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.605657426917</v>
+        <v>1.624534528986889</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.43273685180008</v>
@@ -51868,7 +51640,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.604141061578047</v>
+        <v>1.6161473296032</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.361631859990308</v>
@@ -51957,7 +51729,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.604065183719338</v>
+        <v>1.611080463961511</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.376824145769708</v>
@@ -52046,7 +51818,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.600511325530789</v>
+        <v>1.607166144630933</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.384824966394288</v>
@@ -52135,7 +51907,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.605903735544526</v>
+        <v>1.615028815662709</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.424128004425384</v>
@@ -52224,7 +51996,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.575015172412288</v>
+        <v>1.582277670623609</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.30156601784739</v>
@@ -52313,7 +52085,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.593139762156741</v>
+        <v>1.596249646979859</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.33347748003089</v>
@@ -52402,7 +52174,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.58880906053411</v>
+        <v>1.590532268850267</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.335543620212597</v>
@@ -52491,7 +52263,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.58877073012199</v>
+        <v>1.594963197926679</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.361507503734781</v>
@@ -52580,7 +52352,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.59160129856201</v>
+        <v>1.600168257638095</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.369812260362069</v>
@@ -52669,7 +52441,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.611066435015344</v>
+        <v>1.617814739573393</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.271069286000975</v>
@@ -52758,7 +52530,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.593352415251476</v>
+        <v>1.607653294165126</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.35256882159608</v>
@@ -52847,7 +52619,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.591777730426561</v>
+        <v>1.596014047153344</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.289773879235109</v>
@@ -52936,7 +52708,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.644000325546736</v>
+        <v>1.643601202290398</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.152153883967092</v>
@@ -53025,7 +52797,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.687654036143106</v>
+        <v>1.680597388251847</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.490385086490118</v>
@@ -53114,7 +52886,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.692962948999006</v>
+        <v>1.689380664439731</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.500704312769856</v>
@@ -53203,7 +52975,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.69639894998</v>
+        <v>1.698940727955878</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.46026379593056</v>
@@ -53292,7 +53064,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.702454393241672</v>
+        <v>1.708244924705836</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.452763643318516</v>
@@ -53381,7 +53153,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.701549154994529</v>
+        <v>1.710992914682548</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.553676752584621</v>
@@ -53470,7 +53242,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.660018217792691</v>
+        <v>1.672951197313943</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.471382258377273</v>
@@ -53559,7 +53331,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.707128707046767</v>
+        <v>1.718746739979429</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.447816434864437</v>
@@ -53648,7 +53420,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.719039643222523</v>
+        <v>1.733568792530573</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.456907451956003</v>
